--- a/PRO1/step_3/results/res_line/loading_percent.xlsx
+++ b/PRO1/step_3/results/res_line/loading_percent.xlsx
@@ -424,49 +424,49 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.48576012533917</v>
+        <v>25.79660537441422</v>
       </c>
       <c r="C2">
-        <v>24.78072234210109</v>
+        <v>26.07825382436947</v>
       </c>
       <c r="D2">
-        <v>9.687137287120599</v>
+        <v>10.08082271058594</v>
       </c>
       <c r="E2">
-        <v>7.2450687487547</v>
+        <v>7.637245708284679</v>
       </c>
       <c r="F2">
-        <v>3.136410472191041</v>
+        <v>3.138553837710119</v>
       </c>
       <c r="G2">
-        <v>0.5662992095913908</v>
+        <v>0.5661121733743036</v>
       </c>
       <c r="H2">
-        <v>8.57560507043071</v>
+        <v>8.705773514573576</v>
       </c>
       <c r="I2">
-        <v>5.027212475786734</v>
+        <v>5.158642068699377</v>
       </c>
       <c r="J2">
-        <v>1.897678915055619</v>
+        <v>2.028346115578465</v>
       </c>
       <c r="K2">
-        <v>12.25664952806051</v>
+        <v>12.89906584596965</v>
       </c>
       <c r="L2">
-        <v>2.600364641085597</v>
+        <v>2.86597081583118</v>
       </c>
       <c r="M2">
-        <v>2.438592158907982</v>
+        <v>2.438895853837717</v>
       </c>
       <c r="N2">
-        <v>0.09146606579083116</v>
+        <v>0.09140437712585781</v>
       </c>
       <c r="O2">
-        <v>0.1865965556007279</v>
+        <v>0.1864637185257315</v>
       </c>
       <c r="P2">
-        <v>0.03834304220548546</v>
+        <v>0.03833832958491851</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -474,49 +474,49 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.52857597584469</v>
+        <v>24.31372228125315</v>
       </c>
       <c r="C3">
-        <v>23.81293406986932</v>
+        <v>24.58986592538369</v>
       </c>
       <c r="D3">
-        <v>9.312047742562088</v>
+        <v>9.573614199913486</v>
       </c>
       <c r="E3">
-        <v>6.96480603531666</v>
+        <v>7.225511389997664</v>
       </c>
       <c r="F3">
-        <v>3.015470285619574</v>
+        <v>3.01670298701839</v>
       </c>
       <c r="G3">
-        <v>0.5613406735003901</v>
+        <v>0.5612167218482077</v>
       </c>
       <c r="H3">
-        <v>8.240434891138197</v>
+        <v>8.243913494773718</v>
       </c>
       <c r="I3">
-        <v>4.83315690474414</v>
+        <v>4.835147049972369</v>
       </c>
       <c r="J3">
-        <v>1.825145953421879</v>
+        <v>1.825882450264111</v>
       </c>
       <c r="K3">
-        <v>11.77595287797225</v>
+        <v>12.03388701318993</v>
       </c>
       <c r="L3">
-        <v>2.501835106520398</v>
+        <v>2.678430683325418</v>
       </c>
       <c r="M3">
-        <v>2.346137943356943</v>
+        <v>2.346332307785431</v>
       </c>
       <c r="N3">
-        <v>0.09156086611024822</v>
+        <v>0.09152393266007458</v>
       </c>
       <c r="O3">
-        <v>0.186796427714701</v>
+        <v>0.1867205492167431</v>
       </c>
       <c r="P3">
-        <v>0.0383568560099322</v>
+        <v>0.03835372138906994</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -524,49 +524,49 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.54278508887857</v>
+        <v>23.45881020853179</v>
       </c>
       <c r="C4">
-        <v>22.81523400047726</v>
+        <v>23.72179743380005</v>
       </c>
       <c r="D4">
-        <v>8.925252766392633</v>
+        <v>9.058185239207969</v>
       </c>
       <c r="E4">
-        <v>6.675804602338959</v>
+        <v>6.807731802309415</v>
       </c>
       <c r="F4">
-        <v>2.890716348124958</v>
+        <v>2.892054261876418</v>
       </c>
       <c r="G4">
-        <v>0.5569048884644643</v>
+        <v>0.5567367939232618</v>
       </c>
       <c r="H4">
-        <v>7.894776316005155</v>
+        <v>8.146851550669931</v>
       </c>
       <c r="I4">
-        <v>4.633024068532634</v>
+        <v>4.890930432431923</v>
       </c>
       <c r="J4">
-        <v>1.75036301078187</v>
+        <v>2.009794551399027</v>
       </c>
       <c r="K4">
-        <v>11.28037092695583</v>
+        <v>11.79276429316621</v>
       </c>
       <c r="L4">
-        <v>2.400054767020552</v>
+        <v>2.488090220373225</v>
       </c>
       <c r="M4">
-        <v>2.25062868444357</v>
+        <v>2.250721708819437</v>
       </c>
       <c r="N4">
-        <v>0.09165851628790718</v>
+        <v>0.09161667867424085</v>
       </c>
       <c r="O4">
-        <v>0.1870023166733966</v>
+        <v>0.1869063239205041</v>
       </c>
       <c r="P4">
-        <v>0.03837108787214492</v>
+        <v>0.03836952417893834</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -574,49 +574,49 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.53784453549898</v>
+        <v>22.93039400062915</v>
       </c>
       <c r="C5">
-        <v>22.8102310048825</v>
+        <v>23.19863546695766</v>
       </c>
       <c r="D5">
-        <v>8.923312860239838</v>
+        <v>9.05388271656933</v>
       </c>
       <c r="E5">
-        <v>6.674355183402659</v>
+        <v>6.804510731101028</v>
       </c>
       <c r="F5">
-        <v>2.89009055459735</v>
+        <v>2.890679508070372</v>
       </c>
       <c r="G5">
-        <v>0.5568844041397436</v>
+        <v>0.5568112548578691</v>
       </c>
       <c r="H5">
-        <v>7.89304263666611</v>
+        <v>8.018641147739292</v>
       </c>
       <c r="I5">
-        <v>4.632020271393116</v>
+        <v>4.76068518545781</v>
       </c>
       <c r="J5">
-        <v>1.749987985039948</v>
+        <v>1.879512994817371</v>
       </c>
       <c r="K5">
-        <v>11.27788573248267</v>
+        <v>11.53340372800526</v>
       </c>
       <c r="L5">
-        <v>2.399543850138719</v>
+        <v>2.665444423341468</v>
       </c>
       <c r="M5">
-        <v>2.250149234038202</v>
+        <v>2.250428860067744</v>
       </c>
       <c r="N5">
-        <v>0.09165900579401859</v>
+        <v>0.09164058017029161</v>
       </c>
       <c r="O5">
-        <v>0.1870033487192937</v>
+        <v>0.1869613462687325</v>
       </c>
       <c r="P5">
-        <v>0.03837115921727481</v>
+        <v>0.03836645824325135</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -624,49 +624,49 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.90652351608955</v>
+        <v>22.8219472993047</v>
       </c>
       <c r="C6">
-        <v>22.17068806163401</v>
+        <v>23.0766771449192</v>
       </c>
       <c r="D6">
-        <v>8.675303654415536</v>
+        <v>8.936987141788967</v>
       </c>
       <c r="E6">
-        <v>6.489054523824048</v>
+        <v>6.749805291464596</v>
       </c>
       <c r="F6">
-        <v>2.810075524992889</v>
+        <v>2.811398572752999</v>
       </c>
       <c r="G6">
-        <v>0.5544123281578567</v>
+        <v>0.5542371582224258</v>
       </c>
       <c r="H6">
-        <v>7.671390493122051</v>
+        <v>7.799087120915431</v>
       </c>
       <c r="I6">
-        <v>4.503682902365975</v>
+        <v>4.633522715878987</v>
       </c>
       <c r="J6">
-        <v>1.702045505920177</v>
+        <v>1.832001451978257</v>
       </c>
       <c r="K6">
-        <v>10.96019071851145</v>
+        <v>11.34545232343799</v>
       </c>
       <c r="L6">
-        <v>2.334186763854504</v>
+        <v>2.334186762925514</v>
       </c>
       <c r="M6">
-        <v>2.188816216713218</v>
+        <v>2.188816216697148</v>
       </c>
       <c r="N6">
-        <v>0.09172156184848791</v>
+        <v>0.09167898715817029</v>
       </c>
       <c r="O6">
-        <v>0.1871352485368166</v>
+        <v>0.1870437007809254</v>
       </c>
       <c r="P6">
-        <v>0.0383802777630298</v>
+        <v>0.03838027776300945</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -674,49 +674,49 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.39913682102967</v>
+        <v>24.23288944522294</v>
       </c>
       <c r="C7">
-        <v>22.66975852069687</v>
+        <v>24.48545547215492</v>
       </c>
       <c r="D7">
-        <v>8.868843516839943</v>
+        <v>9.393153472501934</v>
       </c>
       <c r="E7">
-        <v>6.633657993206294</v>
+        <v>7.156078803494252</v>
       </c>
       <c r="F7">
-        <v>2.872518835263026</v>
+        <v>2.87524216834718</v>
       </c>
       <c r="G7">
-        <v>0.5563164886359078</v>
+        <v>0.5559781938536007</v>
       </c>
       <c r="H7">
-        <v>7.844363394002028</v>
+        <v>8.100467427116916</v>
       </c>
       <c r="I7">
-        <v>4.603835034769032</v>
+        <v>4.864081804337919</v>
       </c>
       <c r="J7">
-        <v>1.739458038162613</v>
+        <v>1.999819786947442</v>
       </c>
       <c r="K7">
-        <v>11.20810690666979</v>
+        <v>12.10760933385169</v>
       </c>
       <c r="L7">
-        <v>2.385196197865703</v>
+        <v>2.56189880270804</v>
       </c>
       <c r="M7">
-        <v>2.236685172582452</v>
+        <v>2.236870243555338</v>
       </c>
       <c r="N7">
-        <v>0.09167274841122455</v>
+        <v>0.09158708200440069</v>
       </c>
       <c r="O7">
-        <v>0.1870323248444312</v>
+        <v>0.1868461489659962</v>
       </c>
       <c r="P7">
-        <v>0.03837316233337244</v>
+        <v>0.03837003221395718</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -724,49 +724,49 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.5893203999918</v>
+        <v>25.16116467287495</v>
       </c>
       <c r="C8">
-        <v>23.87437824527721</v>
+        <v>25.43040118555695</v>
       </c>
       <c r="D8">
-        <v>9.335864966610671</v>
+        <v>9.730389364327765</v>
       </c>
       <c r="E8">
-        <v>6.982601792622686</v>
+        <v>7.375374396528215</v>
       </c>
       <c r="F8">
-        <v>3.023150746085245</v>
+        <v>3.02560200096083</v>
       </c>
       <c r="G8">
-        <v>0.5616364720117483</v>
+        <v>0.5613900004742953</v>
       </c>
       <c r="H8">
-        <v>8.261718078931349</v>
+        <v>8.392647982764649</v>
       </c>
       <c r="I8">
-        <v>4.845479489794153</v>
+        <v>4.977294457739434</v>
       </c>
       <c r="J8">
-        <v>1.829751232182855</v>
+        <v>1.960531976261162</v>
       </c>
       <c r="K8">
-        <v>11.80647269559893</v>
+        <v>12.32313842326937</v>
       </c>
       <c r="L8">
-        <v>2.508096438543264</v>
+        <v>2.773829104909167</v>
       </c>
       <c r="M8">
-        <v>2.352013328964092</v>
+        <v>2.352305946223049</v>
       </c>
       <c r="N8">
-        <v>0.09155484965726923</v>
+        <v>0.09148162486901687</v>
       </c>
       <c r="O8">
-        <v>0.1867837426997206</v>
+        <v>0.1866293402068157</v>
       </c>
       <c r="P8">
-        <v>0.03835597924235047</v>
+        <v>0.03835127197978523</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -774,49 +774,49 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.01690897002616</v>
+        <v>28.59557992472184</v>
       </c>
       <c r="C9">
-        <v>27.33362671333085</v>
+        <v>28.8969808092298</v>
       </c>
       <c r="D9">
-        <v>10.62650264059316</v>
+        <v>10.76426100612106</v>
       </c>
       <c r="E9">
-        <v>7.946979997491849</v>
+        <v>8.08259318655386</v>
       </c>
       <c r="F9">
-        <v>3.439152720034235</v>
+        <v>3.441933273041446</v>
       </c>
       <c r="G9">
-        <v>0.581412974856705</v>
+        <v>0.5812632864090915</v>
       </c>
       <c r="H9">
-        <v>9.53896371302937</v>
+        <v>10.2973813320528</v>
       </c>
       <c r="I9">
-        <v>5.641173651600936</v>
+        <v>6.418649333581193</v>
       </c>
       <c r="J9">
-        <v>2.208847987289985</v>
+        <v>2.991937834328162</v>
       </c>
       <c r="K9">
-        <v>13.58759942911909</v>
+        <v>14.74448383923037</v>
       </c>
       <c r="L9">
-        <v>2.846216611690445</v>
+        <v>3.381151531677805</v>
       </c>
       <c r="M9">
-        <v>2.669268756199922</v>
+        <v>2.669937690996009</v>
       </c>
       <c r="N9">
-        <v>0.09122238250945747</v>
+        <v>0.09114953067389117</v>
       </c>
       <c r="O9">
-        <v>0.1860790347011429</v>
+        <v>0.1859006976175566</v>
       </c>
       <c r="P9">
-        <v>0.03830841685635671</v>
+        <v>0.03829893294805554</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -824,49 +824,49 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>38.92913065801631</v>
+        <v>41.8587986405845</v>
       </c>
       <c r="C10">
-        <v>39.31356420896762</v>
+        <v>42.21976949378463</v>
       </c>
       <c r="D10">
-        <v>15.16229808986991</v>
+        <v>16.10100295247866</v>
       </c>
       <c r="E10">
-        <v>11.33666728067608</v>
+        <v>12.26966046056793</v>
       </c>
       <c r="F10">
-        <v>4.899409005677493</v>
+        <v>4.907351659100797</v>
       </c>
       <c r="G10">
-        <v>0.7841561801520772</v>
+        <v>0.78541583161896</v>
       </c>
       <c r="H10">
-        <v>13.71778847176958</v>
+        <v>14.11747853087187</v>
       </c>
       <c r="I10">
-        <v>8.11816204385325</v>
+        <v>8.521191565883241</v>
       </c>
       <c r="J10">
-        <v>3.21913234428821</v>
+        <v>3.618586490749721</v>
       </c>
       <c r="K10">
-        <v>19.53737174061198</v>
+        <v>20.33606339740044</v>
       </c>
       <c r="L10">
-        <v>4.019871842103815</v>
+        <v>4.373843997891677</v>
       </c>
       <c r="M10">
-        <v>3.770292059980845</v>
+        <v>3.770930437403307</v>
       </c>
       <c r="N10">
-        <v>0.09005124657608787</v>
+        <v>0.08990669366451287</v>
       </c>
       <c r="O10">
-        <v>0.1836072116509796</v>
+        <v>0.1833055506758404</v>
       </c>
       <c r="P10">
-        <v>0.03814001754337589</v>
+        <v>0.03813361555386065</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -874,49 +874,49 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>49.01812481406447</v>
+        <v>51.85012021935901</v>
       </c>
       <c r="C11">
-        <v>49.43937201366224</v>
+        <v>52.25142857725425</v>
       </c>
       <c r="D11">
-        <v>19.22562196718101</v>
+        <v>20.1792090645269</v>
       </c>
       <c r="E11">
-        <v>14.37378546604111</v>
+        <v>15.31995782524949</v>
       </c>
       <c r="F11">
-        <v>6.206690649292457</v>
+        <v>6.216786647225567</v>
       </c>
       <c r="G11">
-        <v>0.9926018450522999</v>
+        <v>0.9942387675063216</v>
       </c>
       <c r="H11">
-        <v>17.10021236811759</v>
+        <v>17.63470293724858</v>
       </c>
       <c r="I11">
-        <v>9.962466571683191</v>
+        <v>10.50297232265634</v>
       </c>
       <c r="J11">
-        <v>3.745619345271554</v>
+        <v>4.281237371501358</v>
       </c>
       <c r="K11">
-        <v>24.50454834138513</v>
+        <v>25.70310621169348</v>
       </c>
       <c r="L11">
-        <v>5.053880242044254</v>
+        <v>6.040317471170858</v>
       </c>
       <c r="M11">
-        <v>4.740197588638747</v>
+        <v>4.742456067915877</v>
       </c>
       <c r="N11">
-        <v>0.08901562757611296</v>
+        <v>0.08887201067006585</v>
       </c>
       <c r="O11">
-        <v>0.1814327164821137</v>
+        <v>0.1811243679997272</v>
       </c>
       <c r="P11">
-        <v>0.03798739354246579</v>
+        <v>0.03796942503339813</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -924,49 +924,49 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>66.71321254541066</v>
+        <v>72.28808279742461</v>
       </c>
       <c r="C12">
-        <v>67.16334703030181</v>
+        <v>72.70954004011578</v>
       </c>
       <c r="D12">
-        <v>26.10316458001578</v>
+        <v>27.13192410227377</v>
       </c>
       <c r="E12">
-        <v>19.54909448926396</v>
+        <v>20.55632258419893</v>
       </c>
       <c r="F12">
-        <v>8.376269026736487</v>
+        <v>8.404416172438072</v>
       </c>
       <c r="G12">
-        <v>1.338680470932155</v>
+        <v>1.343420328727147</v>
       </c>
       <c r="H12">
-        <v>23.13586555453979</v>
+        <v>24.12382926682217</v>
       </c>
       <c r="I12">
-        <v>13.45719585418355</v>
+        <v>14.44321101048026</v>
       </c>
       <c r="J12">
-        <v>5.055599333411131</v>
+        <v>6.020920407155553</v>
       </c>
       <c r="K12">
-        <v>33.18385047357413</v>
+        <v>36.19690709917586</v>
       </c>
       <c r="L12">
-        <v>6.727949791518078</v>
+        <v>7.807565134358684</v>
       </c>
       <c r="M12">
-        <v>6.310434571151927</v>
+        <v>6.313806139501168</v>
       </c>
       <c r="N12">
-        <v>0.0872220908239356</v>
+        <v>0.08693138175455846</v>
       </c>
       <c r="O12">
-        <v>0.1776586276001196</v>
+        <v>0.1770137431140222</v>
       </c>
       <c r="P12">
-        <v>0.03773184513541333</v>
+        <v>0.03771179835148485</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -974,49 +974,49 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>80.74961973604981</v>
+        <v>88.21094144595666</v>
       </c>
       <c r="C13">
-        <v>81.21379393226709</v>
+        <v>88.64381039665298</v>
       </c>
       <c r="D13">
-        <v>31.38986962984405</v>
+        <v>33.73372404965721</v>
       </c>
       <c r="E13">
-        <v>23.46845723936228</v>
+        <v>25.77574308743745</v>
       </c>
       <c r="F13">
-        <v>10.12041841004361</v>
+        <v>10.16920503908853</v>
       </c>
       <c r="G13">
-        <v>1.617075016287772</v>
+        <v>1.625076916208272</v>
       </c>
       <c r="H13">
-        <v>28.12512602907861</v>
+        <v>30.25313216456061</v>
       </c>
       <c r="I13">
-        <v>16.40637120073133</v>
+        <v>18.54569637747169</v>
       </c>
       <c r="J13">
-        <v>6.247100953482288</v>
+        <v>8.356285624083828</v>
       </c>
       <c r="K13">
-        <v>40.30371009167603</v>
+        <v>43.85709959620728</v>
       </c>
       <c r="L13">
-        <v>8.125624359027707</v>
+        <v>9.303413336780029</v>
       </c>
       <c r="M13">
-        <v>7.538502235226143</v>
+        <v>7.542975911177622</v>
       </c>
       <c r="N13">
-        <v>0.08576439037870112</v>
+        <v>0.08535455857003706</v>
       </c>
       <c r="O13">
-        <v>0.1745840239931646</v>
+        <v>0.1736854104853993</v>
       </c>
       <c r="P13">
-        <v>0.03752311170388434</v>
+        <v>0.03750095109350303</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1024,49 +1024,49 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>81.77673991660475</v>
+        <v>89.82857826587058</v>
       </c>
       <c r="C14">
-        <v>82.24327267769226</v>
+        <v>90.26173924069394</v>
       </c>
       <c r="D14">
-        <v>31.89022820541609</v>
+        <v>34.25260180048854</v>
       </c>
       <c r="E14">
-        <v>23.84263383079738</v>
+        <v>26.16470928631544</v>
       </c>
       <c r="F14">
-        <v>10.28145936375077</v>
+        <v>10.33501165491267</v>
       </c>
       <c r="G14">
-        <v>1.642763312083159</v>
+        <v>1.651571271675472</v>
       </c>
       <c r="H14">
-        <v>28.44336826291881</v>
+        <v>30.45172012337902</v>
       </c>
       <c r="I14">
-        <v>16.53086506415937</v>
+        <v>18.5409325194172</v>
       </c>
       <c r="J14">
-        <v>6.208089686763208</v>
+        <v>8.181166307483565</v>
       </c>
       <c r="K14">
-        <v>40.81628391828255</v>
+        <v>44.66099214333653</v>
       </c>
       <c r="L14">
-        <v>8.246075776628588</v>
+        <v>8.966303196018385</v>
       </c>
       <c r="M14">
-        <v>7.651454321078221</v>
+        <v>7.654238748238752</v>
       </c>
       <c r="N14">
-        <v>0.08564185905586669</v>
+        <v>0.08519981328009546</v>
       </c>
       <c r="O14">
-        <v>0.1743298192173813</v>
+        <v>0.1733632617124878</v>
       </c>
       <c r="P14">
-        <v>0.03750374259580955</v>
+        <v>0.03749015643691497</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1074,49 +1074,49 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>80.71012892526403</v>
+        <v>88.01935728815596</v>
       </c>
       <c r="C15">
-        <v>81.17585715766033</v>
+        <v>88.45403528797073</v>
       </c>
       <c r="D15">
-        <v>31.47843241205199</v>
+        <v>33.26748564532344</v>
       </c>
       <c r="E15">
-        <v>23.53468489805282</v>
+        <v>25.28766712293288</v>
       </c>
       <c r="F15">
-        <v>10.14892409361967</v>
+        <v>10.19635010024876</v>
       </c>
       <c r="G15">
-        <v>1.621605771389885</v>
+        <v>1.629484779303297</v>
       </c>
       <c r="H15">
-        <v>28.07395559256313</v>
+        <v>30.06273010330133</v>
       </c>
       <c r="I15">
-        <v>16.3169142607945</v>
+        <v>18.3140988072865</v>
       </c>
       <c r="J15">
-        <v>6.12786062657138</v>
+        <v>8.093992962204718</v>
       </c>
       <c r="K15">
-        <v>40.28506978262291</v>
+        <v>43.96551918665036</v>
       </c>
       <c r="L15">
-        <v>8.059246552894441</v>
+        <v>9.418088200832592</v>
       </c>
       <c r="M15">
-        <v>7.559172896379176</v>
+        <v>7.564351210784754</v>
       </c>
       <c r="N15">
-        <v>0.08575361533612334</v>
+        <v>0.08535631985288758</v>
       </c>
       <c r="O15">
-        <v>0.1745649998804873</v>
+        <v>0.1736845340653099</v>
       </c>
       <c r="P15">
-        <v>0.0375211927033612</v>
+        <v>0.03749561510555963</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1124,49 +1124,49 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>80.6780811020747</v>
+        <v>87.55280279223069</v>
       </c>
       <c r="C16">
-        <v>81.14378473631574</v>
+        <v>87.98911399585504</v>
       </c>
       <c r="D16">
-        <v>31.46605896993891</v>
+        <v>33.38373117715498</v>
       </c>
       <c r="E16">
-        <v>23.52543186523154</v>
+        <v>25.40926612980872</v>
       </c>
       <c r="F16">
-        <v>10.14494179696697</v>
+        <v>10.18969200974652</v>
       </c>
       <c r="G16">
-        <v>1.620970060890412</v>
+        <v>1.628321796541077</v>
       </c>
       <c r="H16">
-        <v>28.06285631243806</v>
+        <v>30.17521866482709</v>
       </c>
       <c r="I16">
-        <v>16.31048599211952</v>
+        <v>18.43959954986583</v>
       </c>
       <c r="J16">
-        <v>6.125450115007984</v>
+        <v>8.228279096369699</v>
       </c>
       <c r="K16">
-        <v>40.26910899449565</v>
+        <v>43.39920316453706</v>
       </c>
       <c r="L16">
-        <v>8.14508071863221</v>
+        <v>9.600140434844667</v>
       </c>
       <c r="M16">
-        <v>7.556747243341549</v>
+        <v>7.562286894094851</v>
       </c>
       <c r="N16">
-        <v>0.08575697127778177</v>
+        <v>0.08538183294482411</v>
       </c>
       <c r="O16">
-        <v>0.1745720622472187</v>
+        <v>0.1737453089375555</v>
       </c>
       <c r="P16">
-        <v>0.0375199866627817</v>
+        <v>0.03749261772721041</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1174,49 +1174,49 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>80.53895750332323</v>
+        <v>89.87364670664924</v>
       </c>
       <c r="C17">
-        <v>81.00455405405511</v>
+        <v>90.30073947631807</v>
       </c>
       <c r="D17">
-        <v>31.41234399377714</v>
+        <v>33.7957826316258</v>
       </c>
       <c r="E17">
-        <v>23.48526310205087</v>
+        <v>25.82275193114881</v>
       </c>
       <c r="F17">
-        <v>10.12765408705554</v>
+        <v>10.18840711968162</v>
       </c>
       <c r="G17">
-        <v>1.61821036039197</v>
+        <v>1.628182488886503</v>
       </c>
       <c r="H17">
-        <v>28.01467310877671</v>
+        <v>29.77538623797334</v>
       </c>
       <c r="I17">
-        <v>16.2825801936823</v>
+        <v>18.02717034376066</v>
       </c>
       <c r="J17">
-        <v>6.114985837345606</v>
+        <v>7.812392283772662</v>
       </c>
       <c r="K17">
-        <v>40.19982140495971</v>
+        <v>44.20592984749317</v>
       </c>
       <c r="L17">
-        <v>8.132275943997639</v>
+        <v>9.494691102679683</v>
       </c>
       <c r="M17">
-        <v>7.544739693281293</v>
+        <v>7.549917982417294</v>
       </c>
       <c r="N17">
-        <v>0.08577153854893076</v>
+        <v>0.08526209777647911</v>
       </c>
       <c r="O17">
-        <v>0.1746027181789278</v>
+        <v>0.1735008446811337</v>
       </c>
       <c r="P17">
-        <v>0.03752204349746615</v>
+        <v>0.03749641675300736</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1224,49 +1224,49 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>67.33935736985013</v>
+        <v>76.60361278097008</v>
       </c>
       <c r="C18">
-        <v>67.79026120201534</v>
+        <v>77.01048406304963</v>
       </c>
       <c r="D18">
-        <v>26.21153734013383</v>
+        <v>28.38746268140319</v>
       </c>
       <c r="E18">
-        <v>19.59638522729831</v>
+        <v>21.73608502867685</v>
       </c>
       <c r="F18">
-        <v>8.454094989238605</v>
+        <v>8.502183382980672</v>
       </c>
       <c r="G18">
-        <v>1.351112770006964</v>
+        <v>1.359134833631193</v>
       </c>
       <c r="H18">
-        <v>23.35278570828065</v>
+        <v>25.31823084293156</v>
       </c>
       <c r="I18">
-        <v>13.58280742745943</v>
+        <v>15.55328233247141</v>
       </c>
       <c r="J18">
-        <v>5.102693207316025</v>
+        <v>7.04178429979437</v>
       </c>
       <c r="K18">
-        <v>33.49579847543293</v>
+        <v>38.33588721338201</v>
       </c>
       <c r="L18">
-        <v>6.787152906868688</v>
+        <v>8.327176423517152</v>
       </c>
       <c r="M18">
-        <v>6.36596574835016</v>
+        <v>6.370815599719259</v>
       </c>
       <c r="N18">
-        <v>0.08715842038105232</v>
+        <v>0.08666779355518854</v>
       </c>
       <c r="O18">
-        <v>0.1775226483916463</v>
+        <v>0.176438955195676</v>
       </c>
       <c r="P18">
-        <v>0.03772261695502113</v>
+        <v>0.03769404424607337</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1274,49 +1274,49 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>44.45381520521881</v>
+        <v>54.90650708696391</v>
       </c>
       <c r="C19">
-        <v>44.85668216133413</v>
+        <v>55.24647911662856</v>
       </c>
       <c r="D19">
-        <v>17.2549099886561</v>
+        <v>20.00573032341891</v>
       </c>
       <c r="E19">
-        <v>12.90072707114439</v>
+        <v>15.62767369500145</v>
       </c>
       <c r="F19">
-        <v>5.572697503326504</v>
+        <v>5.606038217832259</v>
       </c>
       <c r="G19">
-        <v>0.8915166005381929</v>
+        <v>0.8970379037121297</v>
       </c>
       <c r="H19">
-        <v>15.58938188414087</v>
+        <v>18.51917344370069</v>
       </c>
       <c r="I19">
-        <v>9.20240014695907</v>
+        <v>12.1761876720098</v>
       </c>
       <c r="J19">
-        <v>3.626067994070858</v>
+        <v>6.594378364376986</v>
       </c>
       <c r="K19">
-        <v>22.22708537055252</v>
+        <v>27.45151638890403</v>
       </c>
       <c r="L19">
-        <v>4.553732254146706</v>
+        <v>6.092795327225454</v>
       </c>
       <c r="M19">
-        <v>4.271062577561422</v>
+        <v>4.274204602315819</v>
       </c>
       <c r="N19">
-        <v>0.08950424362896604</v>
+        <v>0.08897577323162975</v>
       </c>
       <c r="O19">
-        <v>0.1824550469214372</v>
+        <v>0.1812793096317896</v>
       </c>
       <c r="P19">
-        <v>0.03806171590067542</v>
+        <v>0.03803394556399552</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1324,49 +1324,49 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>38.25401763389386</v>
+        <v>47.25156210762449</v>
       </c>
       <c r="C20">
-        <v>38.63730011314491</v>
+        <v>47.57384856227532</v>
       </c>
       <c r="D20">
-        <v>14.95103461000112</v>
+        <v>16.86368323318415</v>
       </c>
       <c r="E20">
-        <v>11.17877186318869</v>
+        <v>13.07390755164591</v>
       </c>
       <c r="F20">
-        <v>4.831428828674974</v>
+        <v>4.855492473407089</v>
       </c>
       <c r="G20">
-        <v>0.7733000572110088</v>
+        <v>0.7772947472997253</v>
       </c>
       <c r="H20">
-        <v>13.27885945397018</v>
+        <v>15.63923729069821</v>
       </c>
       <c r="I20">
-        <v>7.75009232702712</v>
+        <v>10.1511398605963</v>
       </c>
       <c r="J20">
-        <v>2.916730333507996</v>
+        <v>5.317376259865069</v>
       </c>
       <c r="K20">
-        <v>19.01110356339883</v>
+        <v>23.24651105472385</v>
       </c>
       <c r="L20">
-        <v>3.965957755955913</v>
+        <v>5.879877308298815</v>
       </c>
       <c r="M20">
-        <v>3.719718553805878</v>
+        <v>3.723084830583197</v>
       </c>
       <c r="N20">
-        <v>0.0901117309821966</v>
+        <v>0.08966884006457286</v>
       </c>
       <c r="O20">
-        <v>0.1837427412925259</v>
+        <v>0.1827562708005864</v>
       </c>
       <c r="P20">
-        <v>0.03814786597705108</v>
+        <v>0.03811366988499457</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1374,49 +1374,49 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.8423136640145</v>
+        <v>41.31233554978188</v>
       </c>
       <c r="C21">
-        <v>32.19455386848594</v>
+        <v>41.59724929659161</v>
       </c>
       <c r="D21">
-        <v>12.5084780345902</v>
+        <v>14.13943369244279</v>
       </c>
       <c r="E21">
-        <v>9.353333395341307</v>
+        <v>10.96917540888517</v>
       </c>
       <c r="F21">
-        <v>4.04526572151761</v>
+        <v>4.065907094436271</v>
       </c>
       <c r="G21">
-        <v>0.6479594909680485</v>
+        <v>0.6514421113294286</v>
       </c>
       <c r="H21">
-        <v>11.09633522183266</v>
+        <v>13.43998702877587</v>
       </c>
       <c r="I21">
-        <v>6.486570150474809</v>
+        <v>8.870400084698948</v>
       </c>
       <c r="J21">
-        <v>2.443622198610364</v>
+        <v>4.829412988821202</v>
       </c>
       <c r="K21">
-        <v>15.87520235293095</v>
+        <v>20.9972760521478</v>
       </c>
       <c r="L21">
-        <v>3.336129109925719</v>
+        <v>5.631115963324731</v>
       </c>
       <c r="M21">
-        <v>3.128890995687491</v>
+        <v>3.132247567119046</v>
       </c>
       <c r="N21">
-        <v>0.09074361170283604</v>
+        <v>0.09028744389665647</v>
       </c>
       <c r="O21">
-        <v>0.1850740051905995</v>
+        <v>0.184042936166938</v>
       </c>
       <c r="P21">
-        <v>0.03823874781632276</v>
+        <v>0.03819818692466014</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1424,49 +1424,49 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.54231261689186</v>
+        <v>36.30709226886322</v>
       </c>
       <c r="C22">
-        <v>29.87913601932821</v>
+        <v>36.590646222926</v>
       </c>
       <c r="D22">
-        <v>11.74152668467907</v>
+        <v>13.08575877028497</v>
       </c>
       <c r="E22">
-        <v>8.812891453581166</v>
+        <v>10.14742870418297</v>
       </c>
       <c r="F22">
-        <v>3.756709845103175</v>
+        <v>3.770240565670238</v>
       </c>
       <c r="G22">
-        <v>0.6019509328153344</v>
+        <v>0.6042447974044699</v>
       </c>
       <c r="H22">
-        <v>10.29559648626666</v>
+        <v>12.10100057661323</v>
       </c>
       <c r="I22">
-        <v>6.022996947130375</v>
+        <v>7.863088678469862</v>
       </c>
       <c r="J22">
-        <v>2.270126715445717</v>
+        <v>4.114912690410959</v>
       </c>
       <c r="K22">
-        <v>14.72522403207274</v>
+        <v>18.76515085307886</v>
       </c>
       <c r="L22">
-        <v>3.103306115080613</v>
+        <v>5.211985143354548</v>
       </c>
       <c r="M22">
-        <v>2.910469760779759</v>
+        <v>2.91332732661709</v>
       </c>
       <c r="N22">
-        <v>0.09097110625170776</v>
+        <v>0.09064805647914105</v>
       </c>
       <c r="O22">
-        <v>0.1855553700003599</v>
+        <v>0.1848189885736182</v>
       </c>
       <c r="P22">
-        <v>0.03827196843072646</v>
+        <v>0.03823483847892759</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1474,49 +1474,49 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.7655728424119</v>
+        <v>34.45544218848415</v>
       </c>
       <c r="C23">
-        <v>29.09661697433944</v>
+        <v>34.73960241473766</v>
       </c>
       <c r="D23">
-        <v>11.30916532778147</v>
+        <v>12.38212145423936</v>
       </c>
       <c r="E23">
-        <v>8.45710161491866</v>
+        <v>9.522048049887667</v>
       </c>
       <c r="F23">
-        <v>3.659066274462793</v>
+        <v>3.67006104064769</v>
       </c>
       <c r="G23">
-        <v>0.5947221514311863</v>
+        <v>0.5944306118527717</v>
       </c>
       <c r="H23">
-        <v>10.14896663970667</v>
+        <v>11.43955621834481</v>
       </c>
       <c r="I23">
-        <v>5.994438139247391</v>
+        <v>7.30850985062004</v>
       </c>
       <c r="J23">
-        <v>2.341085898683176</v>
+        <v>3.657493685671744</v>
       </c>
       <c r="K23">
-        <v>14.46317854664109</v>
+        <v>17.58553778003706</v>
       </c>
       <c r="L23">
-        <v>3.024378050697697</v>
+        <v>4.384670340350147</v>
       </c>
       <c r="M23">
-        <v>2.836421351605835</v>
+        <v>2.83821994274054</v>
       </c>
       <c r="N23">
-        <v>0.09104902652591775</v>
+        <v>0.09077919874648709</v>
       </c>
       <c r="O23">
-        <v>0.1857135882351276</v>
+        <v>0.1851057089387926</v>
       </c>
       <c r="P23">
-        <v>0.03828318450511096</v>
+        <v>0.0382591957898731</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1524,49 +1524,49 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.98083707423133</v>
+        <v>30.53747632984161</v>
       </c>
       <c r="C24">
-        <v>27.29467895507222</v>
+        <v>30.81951631748899</v>
       </c>
       <c r="D24">
-        <v>10.69117784209303</v>
+        <v>11.61857065934824</v>
       </c>
       <c r="E24">
-        <v>8.027961046409688</v>
+        <v>8.950911236523929</v>
       </c>
       <c r="F24">
-        <v>3.418429523805442</v>
+        <v>3.424833837486677</v>
       </c>
       <c r="G24">
-        <v>0.5802327173081967</v>
+        <v>0.5799029294607337</v>
       </c>
       <c r="H24">
-        <v>9.357372787297731</v>
+        <v>9.749024020614506</v>
       </c>
       <c r="I24">
-        <v>5.479816424912689</v>
+        <v>5.875543690280935</v>
       </c>
       <c r="J24">
-        <v>2.066916277384954</v>
+        <v>2.460485751075271</v>
       </c>
       <c r="K24">
-        <v>13.37834381159575</v>
+        <v>14.67621780408772</v>
       </c>
       <c r="L24">
-        <v>2.829196795596653</v>
+        <v>3.728859669364293</v>
       </c>
       <c r="M24">
-        <v>2.653300149452292</v>
+        <v>2.654413016726549</v>
       </c>
       <c r="N24">
-        <v>0.09123215941295632</v>
+        <v>0.09106351537407641</v>
       </c>
       <c r="O24">
-        <v>0.186106040841353</v>
+        <v>0.1857474037498405</v>
       </c>
       <c r="P24">
-        <v>0.03831082113182628</v>
+        <v>0.03829495110975527</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1574,49 +1574,49 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.12431833569785</v>
+        <v>27.83184251855354</v>
       </c>
       <c r="C25">
-        <v>26.430299324817</v>
+        <v>28.12124010009464</v>
       </c>
       <c r="D25">
-        <v>10.35630850864995</v>
+        <v>10.75327390948075</v>
       </c>
       <c r="E25">
-        <v>7.777721904279637</v>
+        <v>8.172581574921271</v>
       </c>
       <c r="F25">
-        <v>3.310541522692495</v>
+        <v>3.313480746798249</v>
       </c>
       <c r="G25">
-        <v>0.5744914399638803</v>
+        <v>0.57429886245129</v>
       </c>
       <c r="H25">
-        <v>9.058235264680677</v>
+        <v>9.439669481675844</v>
       </c>
       <c r="I25">
-        <v>5.306629921009161</v>
+        <v>5.696173647616555</v>
       </c>
       <c r="J25">
-        <v>2.00214741296963</v>
+        <v>2.39305632040255</v>
       </c>
       <c r="K25">
-        <v>12.94906517680042</v>
+        <v>13.7222495198151</v>
       </c>
       <c r="L25">
-        <v>2.741608648951922</v>
+        <v>3.186483322109965</v>
       </c>
       <c r="M25">
-        <v>2.571120341335936</v>
+        <v>2.571656039664033</v>
       </c>
       <c r="N25">
-        <v>0.09131703707527628</v>
+        <v>0.09123699144724687</v>
       </c>
       <c r="O25">
-        <v>0.1862849723254877</v>
+        <v>0.1861082483015887</v>
       </c>
       <c r="P25">
-        <v>0.03832317708767621</v>
+        <v>0.03831529237105682</v>
       </c>
     </row>
   </sheetData>

--- a/PRO1/step_3/results/res_line/loading_percent.xlsx
+++ b/PRO1/step_3/results/res_line/loading_percent.xlsx
@@ -424,49 +424,49 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.79660537441422</v>
+        <v>24.6166239554012</v>
       </c>
       <c r="C2">
-        <v>26.07825382436947</v>
+        <v>24.91017837053549</v>
       </c>
       <c r="D2">
-        <v>10.08082271058594</v>
+        <v>9.816700255620935</v>
       </c>
       <c r="E2">
-        <v>7.637245708284679</v>
+        <v>7.374497036943752</v>
       </c>
       <c r="F2">
-        <v>3.138553837710119</v>
+        <v>3.13664490421169</v>
       </c>
       <c r="G2">
-        <v>0.5661121733743036</v>
+        <v>0.566281978155486</v>
       </c>
       <c r="H2">
-        <v>8.705773514573576</v>
+        <v>8.576177857740038</v>
       </c>
       <c r="I2">
-        <v>5.158642068699377</v>
+        <v>5.027540317153484</v>
       </c>
       <c r="J2">
-        <v>2.028346115578465</v>
+        <v>1.897800350425649</v>
       </c>
       <c r="K2">
-        <v>12.89906584596965</v>
+        <v>12.25747381616197</v>
       </c>
       <c r="L2">
-        <v>2.86597081583118</v>
+        <v>2.600364641085597</v>
       </c>
       <c r="M2">
-        <v>2.438895853837717</v>
+        <v>2.438592158907982</v>
       </c>
       <c r="N2">
-        <v>0.09140437712585781</v>
+        <v>0.09145931451203537</v>
       </c>
       <c r="O2">
-        <v>0.1864637185257315</v>
+        <v>0.1865845446801283</v>
       </c>
       <c r="P2">
-        <v>0.03833832958491851</v>
+        <v>0.03834304220548546</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -474,49 +474,49 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.31372228125315</v>
+        <v>23.65936312655673</v>
       </c>
       <c r="C3">
-        <v>24.58986592538369</v>
+        <v>23.94231109314452</v>
       </c>
       <c r="D3">
-        <v>9.573614199913486</v>
+        <v>9.441522450544102</v>
       </c>
       <c r="E3">
-        <v>7.225511389997664</v>
+        <v>7.094153983085702</v>
       </c>
       <c r="F3">
-        <v>3.01670298701839</v>
+        <v>3.015694785982693</v>
       </c>
       <c r="G3">
-        <v>0.5612167218482077</v>
+        <v>0.5613211065682899</v>
       </c>
       <c r="H3">
-        <v>8.243913494773718</v>
+        <v>8.240983281506281</v>
       </c>
       <c r="I3">
-        <v>4.835147049972369</v>
+        <v>4.833470643543135</v>
       </c>
       <c r="J3">
-        <v>1.825882450264111</v>
+        <v>1.825262058624634</v>
       </c>
       <c r="K3">
-        <v>12.03388701318993</v>
+        <v>11.77674172116469</v>
       </c>
       <c r="L3">
-        <v>2.678430683325418</v>
+        <v>2.501835106520398</v>
       </c>
       <c r="M3">
-        <v>2.346332307785431</v>
+        <v>2.346137943356943</v>
       </c>
       <c r="N3">
-        <v>0.09152393266007458</v>
+        <v>0.09155413755565585</v>
       </c>
       <c r="O3">
-        <v>0.1867205492167431</v>
+        <v>0.1867844616810511</v>
       </c>
       <c r="P3">
-        <v>0.03835372138906994</v>
+        <v>0.0383568560099322</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -524,49 +524,49 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.45881020853179</v>
+        <v>22.54278508741706</v>
       </c>
       <c r="C4">
-        <v>23.72179743380005</v>
+        <v>22.8152339984819</v>
       </c>
       <c r="D4">
-        <v>9.058185239207969</v>
+        <v>8.925252764747437</v>
       </c>
       <c r="E4">
-        <v>6.807731802309415</v>
+        <v>6.675804600810194</v>
       </c>
       <c r="F4">
-        <v>2.892054261876418</v>
+        <v>2.890716347943656</v>
       </c>
       <c r="G4">
-        <v>0.5567367939232618</v>
+        <v>0.5569048884497865</v>
       </c>
       <c r="H4">
-        <v>8.146851550669931</v>
+        <v>7.894776315607742</v>
       </c>
       <c r="I4">
-        <v>4.890930432431923</v>
+        <v>4.633024068258143</v>
       </c>
       <c r="J4">
-        <v>2.009794551399027</v>
+        <v>1.75036301066954</v>
       </c>
       <c r="K4">
-        <v>11.79276429316621</v>
+        <v>11.2803709263518</v>
       </c>
       <c r="L4">
-        <v>2.488090220373225</v>
+        <v>2.400054767020552</v>
       </c>
       <c r="M4">
-        <v>2.250721708819437</v>
+        <v>2.25062868444357</v>
       </c>
       <c r="N4">
-        <v>0.09161667867424085</v>
+        <v>0.09165851629675879</v>
       </c>
       <c r="O4">
-        <v>0.1869063239205041</v>
+        <v>0.1870023166645472</v>
       </c>
       <c r="P4">
-        <v>0.03836952417893834</v>
+        <v>0.03837108787214492</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -574,49 +574,49 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.93039400062915</v>
+        <v>22.53784453550096</v>
       </c>
       <c r="C5">
-        <v>23.19863546695766</v>
+        <v>22.81023100488489</v>
       </c>
       <c r="D5">
-        <v>9.05388271656933</v>
+        <v>8.923312860246503</v>
       </c>
       <c r="E5">
-        <v>6.804510731101028</v>
+        <v>6.674355183412664</v>
       </c>
       <c r="F5">
-        <v>2.890679508070372</v>
+        <v>2.890090554605184</v>
       </c>
       <c r="G5">
-        <v>0.5568112548578691</v>
+        <v>0.556884404140161</v>
       </c>
       <c r="H5">
-        <v>8.018641147739292</v>
+        <v>7.893042636658157</v>
       </c>
       <c r="I5">
-        <v>4.76068518545781</v>
+        <v>4.632020271387335</v>
       </c>
       <c r="J5">
-        <v>1.879512994817371</v>
+        <v>1.749987985031645</v>
       </c>
       <c r="K5">
-        <v>11.53340372800526</v>
+        <v>11.27788573247121</v>
       </c>
       <c r="L5">
-        <v>2.665444423341468</v>
+        <v>2.399543850138719</v>
       </c>
       <c r="M5">
-        <v>2.250428860067744</v>
+        <v>2.250149234038202</v>
       </c>
       <c r="N5">
-        <v>0.09164058017029161</v>
+        <v>0.09165900577179277</v>
       </c>
       <c r="O5">
-        <v>0.1869613462687325</v>
+        <v>0.1870033487171302</v>
       </c>
       <c r="P5">
-        <v>0.03836645824325135</v>
+        <v>0.03837115921727481</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -624,49 +624,49 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.8219472993047</v>
+        <v>21.90652351609016</v>
       </c>
       <c r="C6">
-        <v>23.0766771449192</v>
+        <v>22.17068806163566</v>
       </c>
       <c r="D6">
-        <v>8.936987141788967</v>
+        <v>8.67530365441776</v>
       </c>
       <c r="E6">
-        <v>6.749805291464596</v>
+        <v>6.489054523820709</v>
       </c>
       <c r="F6">
-        <v>2.811398572752999</v>
+        <v>2.810075524993081</v>
       </c>
       <c r="G6">
-        <v>0.5542371582224258</v>
+        <v>0.5544123281570408</v>
       </c>
       <c r="H6">
-        <v>7.799087120915431</v>
+        <v>7.671390493119934</v>
       </c>
       <c r="I6">
-        <v>4.633522715878987</v>
+        <v>4.50368290236845</v>
       </c>
       <c r="J6">
-        <v>1.832001451978257</v>
+        <v>1.702045505914927</v>
       </c>
       <c r="K6">
-        <v>11.34545232343799</v>
+        <v>10.96019071851285</v>
       </c>
       <c r="L6">
-        <v>2.334186762925514</v>
+        <v>2.422250370921913</v>
       </c>
       <c r="M6">
-        <v>2.188816216697148</v>
+        <v>2.188906626080581</v>
       </c>
       <c r="N6">
-        <v>0.09167898715817029</v>
+        <v>0.0917215618443421</v>
       </c>
       <c r="O6">
-        <v>0.1870437007809254</v>
+        <v>0.18713524853446</v>
       </c>
       <c r="P6">
-        <v>0.03838027776300945</v>
+        <v>0.03837871533764686</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -674,49 +674,49 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.23288944522294</v>
+        <v>22.52965776823835</v>
       </c>
       <c r="C7">
-        <v>24.48545547215492</v>
+        <v>22.79885809022856</v>
       </c>
       <c r="D7">
-        <v>9.393153472501934</v>
+        <v>8.869417127759274</v>
       </c>
       <c r="E7">
-        <v>7.156078803494252</v>
+        <v>6.634086133479755</v>
       </c>
       <c r="F7">
-        <v>2.87524216834718</v>
+        <v>2.872703200659759</v>
       </c>
       <c r="G7">
-        <v>0.5559781938536007</v>
+        <v>0.5562943744318563</v>
       </c>
       <c r="H7">
-        <v>8.100467427116916</v>
+        <v>7.844880962652975</v>
       </c>
       <c r="I7">
-        <v>4.864081804337919</v>
+        <v>4.60413097374948</v>
       </c>
       <c r="J7">
-        <v>1.999819786947442</v>
+        <v>1.739567421715365</v>
       </c>
       <c r="K7">
-        <v>12.10760933385169</v>
+        <v>11.20885096370496</v>
       </c>
       <c r="L7">
-        <v>2.56189880270804</v>
+        <v>2.385196197860682</v>
       </c>
       <c r="M7">
-        <v>2.236870243555338</v>
+        <v>2.236685172583384</v>
       </c>
       <c r="N7">
-        <v>0.09158708200440069</v>
+        <v>0.09166694390034853</v>
       </c>
       <c r="O7">
-        <v>0.1868461489659962</v>
+        <v>0.1870204632873555</v>
       </c>
       <c r="P7">
-        <v>0.03837003221395718</v>
+        <v>0.03837316233379306</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -724,49 +724,49 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.16116467287495</v>
+        <v>23.72011232378976</v>
       </c>
       <c r="C8">
-        <v>25.43040118555695</v>
+        <v>24.00376005297306</v>
       </c>
       <c r="D8">
-        <v>9.730389364327765</v>
+        <v>9.465345142247559</v>
       </c>
       <c r="E8">
-        <v>7.375374396528215</v>
+        <v>7.111954708732234</v>
       </c>
       <c r="F8">
-        <v>3.02560200096083</v>
+        <v>3.023375874586575</v>
       </c>
       <c r="G8">
-        <v>0.5613900004742953</v>
+        <v>0.5616170508099093</v>
       </c>
       <c r="H8">
-        <v>8.392647982764649</v>
+        <v>8.262268012145137</v>
       </c>
       <c r="I8">
-        <v>4.977294457739434</v>
+        <v>4.84579412036523</v>
       </c>
       <c r="J8">
-        <v>1.960531976261162</v>
+        <v>1.829867674540169</v>
       </c>
       <c r="K8">
-        <v>12.32313842326937</v>
+        <v>11.80726378120796</v>
       </c>
       <c r="L8">
-        <v>2.773829104909167</v>
+        <v>2.508096438542984</v>
       </c>
       <c r="M8">
-        <v>2.352305946223049</v>
+        <v>2.352013328963529</v>
       </c>
       <c r="N8">
-        <v>0.09148162486901687</v>
+        <v>0.09154811966885168</v>
       </c>
       <c r="O8">
-        <v>0.1866293402068157</v>
+        <v>0.186771773817842</v>
       </c>
       <c r="P8">
-        <v>0.03835127197978523</v>
+        <v>0.03835597924192987</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -774,49 +774,49 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.59557992472184</v>
+        <v>27.01661898926115</v>
       </c>
       <c r="C9">
-        <v>28.8969808092298</v>
+        <v>27.33331792250924</v>
       </c>
       <c r="D9">
-        <v>10.76426100612106</v>
+        <v>10.75559548512031</v>
       </c>
       <c r="E9">
-        <v>8.08259318655386</v>
+        <v>8.076097665945472</v>
       </c>
       <c r="F9">
-        <v>3.441933273041446</v>
+        <v>3.439184647805364</v>
       </c>
       <c r="G9">
-        <v>0.5812632864090915</v>
+        <v>0.5814148704624698</v>
       </c>
       <c r="H9">
-        <v>10.2973813320528</v>
+        <v>9.414917911206704</v>
       </c>
       <c r="I9">
-        <v>6.418649333581193</v>
+        <v>5.51313592093191</v>
       </c>
       <c r="J9">
-        <v>2.991937834328162</v>
+        <v>2.079379603000871</v>
       </c>
       <c r="K9">
-        <v>14.74448383923037</v>
+        <v>13.46093041368121</v>
       </c>
       <c r="L9">
-        <v>3.381151531677805</v>
+        <v>2.846216611693821</v>
       </c>
       <c r="M9">
-        <v>2.669937690996009</v>
+        <v>2.669268756202555</v>
       </c>
       <c r="N9">
-        <v>0.09114953067389117</v>
+        <v>0.09122154532870652</v>
       </c>
       <c r="O9">
-        <v>0.1859006976175566</v>
+        <v>0.1860832863441035</v>
       </c>
       <c r="P9">
-        <v>0.03829893294805554</v>
+        <v>0.03830841685596089</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -824,49 +824,49 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>41.8587986405845</v>
+        <v>38.53096686642451</v>
       </c>
       <c r="C10">
-        <v>42.21976949378463</v>
+        <v>38.91890742704538</v>
       </c>
       <c r="D10">
-        <v>16.10100295247866</v>
+        <v>15.15909651594087</v>
       </c>
       <c r="E10">
-        <v>12.26966046056793</v>
+        <v>11.33427531265581</v>
       </c>
       <c r="F10">
-        <v>4.907351659100797</v>
+        <v>4.898382697015552</v>
       </c>
       <c r="G10">
-        <v>0.78541583161896</v>
+        <v>0.7839757629508602</v>
       </c>
       <c r="H10">
-        <v>14.11747853087187</v>
+        <v>13.46478864277074</v>
       </c>
       <c r="I10">
-        <v>8.521191565883241</v>
+        <v>7.857740596603451</v>
       </c>
       <c r="J10">
-        <v>3.618586490749721</v>
+        <v>2.957051428490747</v>
       </c>
       <c r="K10">
-        <v>20.33606339740044</v>
+        <v>19.27831436707258</v>
       </c>
       <c r="L10">
-        <v>4.373843997891677</v>
+        <v>4.019871842102877</v>
       </c>
       <c r="M10">
-        <v>3.770930437403307</v>
+        <v>3.770292059981219</v>
       </c>
       <c r="N10">
-        <v>0.08990669366451287</v>
+        <v>0.09006995876785757</v>
       </c>
       <c r="O10">
-        <v>0.1833055506758404</v>
+        <v>0.1836539497497576</v>
       </c>
       <c r="P10">
-        <v>0.03813361555386065</v>
+        <v>0.03814001754255253</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -874,49 +874,49 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>51.85012021935901</v>
+        <v>49.28611870646781</v>
       </c>
       <c r="C11">
-        <v>52.25142857725425</v>
+        <v>49.70532996352929</v>
       </c>
       <c r="D11">
-        <v>20.1792090645269</v>
+        <v>19.35987043193115</v>
       </c>
       <c r="E11">
-        <v>15.31995782524949</v>
+        <v>14.50731841694654</v>
       </c>
       <c r="F11">
-        <v>6.216786647225567</v>
+        <v>6.207657807352983</v>
       </c>
       <c r="G11">
-        <v>0.9942387675063216</v>
+        <v>0.9927456601627767</v>
       </c>
       <c r="H11">
-        <v>17.63470293724858</v>
+        <v>17.10274544922996</v>
       </c>
       <c r="I11">
-        <v>10.50297232265634</v>
+        <v>9.963925148962248</v>
       </c>
       <c r="J11">
-        <v>4.281237371501358</v>
+        <v>3.746164385853173</v>
       </c>
       <c r="K11">
-        <v>25.70310621169348</v>
+        <v>24.50820118791269</v>
       </c>
       <c r="L11">
-        <v>6.040317471170858</v>
+        <v>5.05388024204397</v>
       </c>
       <c r="M11">
-        <v>4.742456067915877</v>
+        <v>4.740197588637807</v>
       </c>
       <c r="N11">
-        <v>0.08887201067006585</v>
+        <v>0.08900184957672734</v>
       </c>
       <c r="O11">
-        <v>0.1811243679997272</v>
+        <v>0.1814063738308385</v>
       </c>
       <c r="P11">
-        <v>0.03796942503339813</v>
+        <v>0.03798739354288598</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -924,49 +924,49 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>72.28808279742461</v>
+        <v>67.12928262894182</v>
       </c>
       <c r="C12">
-        <v>72.70954004011578</v>
+        <v>67.57708467176295</v>
       </c>
       <c r="D12">
-        <v>27.13192410227377</v>
+        <v>26.51167825162737</v>
       </c>
       <c r="E12">
-        <v>20.55632258419893</v>
+        <v>19.95599605427358</v>
       </c>
       <c r="F12">
-        <v>8.404416172438072</v>
+        <v>8.37857449703502</v>
       </c>
       <c r="G12">
-        <v>1.343420328727147</v>
+        <v>1.339021075960766</v>
       </c>
       <c r="H12">
-        <v>24.12382926682217</v>
+        <v>23.27005008160388</v>
       </c>
       <c r="I12">
-        <v>14.44321101048026</v>
+        <v>13.59371487270741</v>
       </c>
       <c r="J12">
-        <v>6.020920407155553</v>
+        <v>5.191168474228391</v>
       </c>
       <c r="K12">
-        <v>36.19690709917586</v>
+        <v>33.32281600195019</v>
       </c>
       <c r="L12">
-        <v>7.807565134358684</v>
+        <v>6.727949791520818</v>
       </c>
       <c r="M12">
-        <v>6.313806139501168</v>
+        <v>6.310434571152866</v>
       </c>
       <c r="N12">
-        <v>0.08693138175455846</v>
+        <v>0.08719820656347303</v>
       </c>
       <c r="O12">
-        <v>0.1770137431140222</v>
+        <v>0.1776110168075128</v>
       </c>
       <c r="P12">
-        <v>0.03771179835148485</v>
+        <v>0.03773184513510965</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -974,49 +974,49 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>88.21094144595666</v>
+        <v>81.17512465027602</v>
       </c>
       <c r="C13">
-        <v>88.64381039665298</v>
+        <v>81.63728459614946</v>
       </c>
       <c r="D13">
-        <v>33.73372404965721</v>
+        <v>31.80623789316906</v>
       </c>
       <c r="E13">
-        <v>25.77574308743745</v>
+        <v>23.8826749592393</v>
       </c>
       <c r="F13">
-        <v>10.16920503908853</v>
+        <v>10.12338418667346</v>
       </c>
       <c r="G13">
-        <v>1.625076916208272</v>
+        <v>1.617514486127309</v>
       </c>
       <c r="H13">
-        <v>30.25313216456061</v>
+        <v>28.00261230009483</v>
       </c>
       <c r="I13">
-        <v>18.54569637747169</v>
+        <v>16.27557360423819</v>
       </c>
       <c r="J13">
-        <v>8.356285624083828</v>
+        <v>6.112355021463264</v>
       </c>
       <c r="K13">
-        <v>43.85709959620728</v>
+        <v>40.44619906688241</v>
       </c>
       <c r="L13">
-        <v>9.303413336780029</v>
+        <v>8.214689470408317</v>
       </c>
       <c r="M13">
-        <v>7.542975911177622</v>
+        <v>7.538841796923896</v>
       </c>
       <c r="N13">
-        <v>0.08535455857003706</v>
+        <v>0.08573936427845426</v>
       </c>
       <c r="O13">
-        <v>0.1736854104853993</v>
+        <v>0.1745387292946681</v>
       </c>
       <c r="P13">
-        <v>0.03750095109350303</v>
+        <v>0.03752142874954141</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1024,49 +1024,49 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>89.82857826587058</v>
+        <v>82.20353085599427</v>
       </c>
       <c r="C14">
-        <v>90.26173924069394</v>
+        <v>82.66806290791565</v>
       </c>
       <c r="D14">
-        <v>34.25260180048854</v>
+        <v>32.03474076062975</v>
       </c>
       <c r="E14">
-        <v>26.16470928631544</v>
+        <v>23.98499492032893</v>
       </c>
       <c r="F14">
-        <v>10.33501165491267</v>
+        <v>10.28426634431882</v>
       </c>
       <c r="G14">
-        <v>1.651571271675472</v>
+        <v>1.643233509947101</v>
       </c>
       <c r="H14">
-        <v>30.45172012337902</v>
+        <v>28.58209008802861</v>
       </c>
       <c r="I14">
-        <v>18.5409325194172</v>
+        <v>16.67112835968131</v>
       </c>
       <c r="J14">
-        <v>8.181166307483565</v>
+        <v>6.346520284964448</v>
       </c>
       <c r="K14">
-        <v>44.66099214333653</v>
+        <v>41.09271777703928</v>
       </c>
       <c r="L14">
-        <v>8.966303196018385</v>
+        <v>8.24607577663595</v>
       </c>
       <c r="M14">
-        <v>7.654238748238752</v>
+        <v>7.651454321084623</v>
       </c>
       <c r="N14">
-        <v>0.08519981328009546</v>
+        <v>0.08561857524819426</v>
       </c>
       <c r="O14">
-        <v>0.1733632617124878</v>
+        <v>0.1742774171916619</v>
       </c>
       <c r="P14">
-        <v>0.03749015643691497</v>
+        <v>0.03750374259535513</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1074,49 +1074,49 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>88.01935728815596</v>
+        <v>81.27533901702864</v>
       </c>
       <c r="C15">
-        <v>88.45403528797073</v>
+        <v>81.73833751101095</v>
       </c>
       <c r="D15">
-        <v>33.26748564532344</v>
+        <v>31.62526165727442</v>
       </c>
       <c r="E15">
-        <v>25.28766712293288</v>
+        <v>23.67874017662338</v>
       </c>
       <c r="F15">
-        <v>10.19635010024876</v>
+        <v>10.15252412774387</v>
       </c>
       <c r="G15">
-        <v>1.629484779303297</v>
+        <v>1.622182268768919</v>
       </c>
       <c r="H15">
-        <v>30.06273010330133</v>
+        <v>28.21438970697223</v>
       </c>
       <c r="I15">
-        <v>18.3140988072865</v>
+        <v>16.45808970963801</v>
       </c>
       <c r="J15">
-        <v>8.093992962204718</v>
+        <v>6.266532114259864</v>
       </c>
       <c r="K15">
-        <v>43.96551918665036</v>
+        <v>40.43205683788509</v>
       </c>
       <c r="L15">
-        <v>9.418088200832592</v>
+        <v>8.326454494930038</v>
       </c>
       <c r="M15">
-        <v>7.564351210784754</v>
+        <v>7.560194806510288</v>
       </c>
       <c r="N15">
-        <v>0.08535631985288758</v>
+        <v>0.08572332782758889</v>
       </c>
       <c r="O15">
-        <v>0.1736845340653099</v>
+        <v>0.1745004025967218</v>
       </c>
       <c r="P15">
-        <v>0.03749561510555963</v>
+        <v>0.03751614235591167</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1124,49 +1124,49 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>87.55280279223069</v>
+        <v>80.96200215803397</v>
       </c>
       <c r="C16">
-        <v>87.98911399585504</v>
+        <v>81.42635463309963</v>
       </c>
       <c r="D16">
-        <v>33.38373117715498</v>
+        <v>31.60748651985454</v>
       </c>
       <c r="E16">
-        <v>25.40926612980872</v>
+        <v>23.66543997587112</v>
       </c>
       <c r="F16">
-        <v>10.18969200974652</v>
+        <v>10.14681465392625</v>
       </c>
       <c r="G16">
-        <v>1.628321796541077</v>
+        <v>1.621271044535013</v>
       </c>
       <c r="H16">
-        <v>30.17521866482709</v>
+        <v>28.19841999768792</v>
       </c>
       <c r="I16">
-        <v>18.43959954986583</v>
+        <v>16.44883604649464</v>
       </c>
       <c r="J16">
-        <v>8.228279096369699</v>
+        <v>6.263045794864045</v>
       </c>
       <c r="K16">
-        <v>43.39920316453706</v>
+        <v>40.40909221103506</v>
       </c>
       <c r="L16">
-        <v>9.600140434844667</v>
+        <v>8.145080718502861</v>
       </c>
       <c r="M16">
-        <v>7.562286894094851</v>
+        <v>7.556747243339153</v>
       </c>
       <c r="N16">
-        <v>0.08538183294482411</v>
+        <v>0.08574120527709937</v>
       </c>
       <c r="O16">
-        <v>0.1737453089375555</v>
+        <v>0.1745372079601459</v>
       </c>
       <c r="P16">
-        <v>0.03749261772721041</v>
+        <v>0.03751998666236239</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1174,49 +1174,49 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>89.87364670664924</v>
+        <v>81.2446617755256</v>
       </c>
       <c r="C17">
-        <v>90.30073947631807</v>
+        <v>81.70684093613387</v>
       </c>
       <c r="D17">
-        <v>33.7957826316258</v>
+        <v>31.83406372119685</v>
       </c>
       <c r="E17">
-        <v>25.82275193114881</v>
+        <v>23.90349142087587</v>
       </c>
       <c r="F17">
-        <v>10.18840711968162</v>
+        <v>10.13232961280238</v>
       </c>
       <c r="G17">
-        <v>1.628182488886503</v>
+        <v>1.618902869829927</v>
       </c>
       <c r="H17">
-        <v>29.77538623797334</v>
+        <v>28.02684735144261</v>
       </c>
       <c r="I17">
-        <v>18.02717034376066</v>
+        <v>16.28961090388738</v>
       </c>
       <c r="J17">
-        <v>7.812392283772662</v>
+        <v>6.117619020106364</v>
       </c>
       <c r="K17">
-        <v>44.20592984749317</v>
+        <v>40.21735783352083</v>
       </c>
       <c r="L17">
-        <v>9.494691102679683</v>
+        <v>8.132275943997923</v>
       </c>
       <c r="M17">
-        <v>7.549917982417294</v>
+        <v>7.544739693281505</v>
       </c>
       <c r="N17">
-        <v>0.08526209777647911</v>
+        <v>0.08573211648926427</v>
       </c>
       <c r="O17">
-        <v>0.1735008446811337</v>
+        <v>0.1745277436608134</v>
       </c>
       <c r="P17">
-        <v>0.03749641675300736</v>
+        <v>0.03752204349704685</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1224,49 +1224,49 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>76.60361278097008</v>
+        <v>67.89165781522065</v>
       </c>
       <c r="C18">
-        <v>77.01048406304963</v>
+        <v>68.33941904723079</v>
       </c>
       <c r="D18">
-        <v>28.38746268140319</v>
+        <v>26.62210227238284</v>
       </c>
       <c r="E18">
-        <v>21.73608502867685</v>
+        <v>20.00477643759565</v>
       </c>
       <c r="F18">
-        <v>8.502183382980672</v>
+        <v>8.457079045215856</v>
       </c>
       <c r="G18">
-        <v>1.359134833631193</v>
+        <v>1.351545267356978</v>
       </c>
       <c r="H18">
-        <v>25.31823084293156</v>
+        <v>23.36039240563652</v>
       </c>
       <c r="I18">
-        <v>15.55328233247141</v>
+        <v>13.58719596364672</v>
       </c>
       <c r="J18">
-        <v>7.04178429979437</v>
+        <v>5.104335768125271</v>
       </c>
       <c r="K18">
-        <v>38.33588721338201</v>
+        <v>33.50676122277317</v>
       </c>
       <c r="L18">
-        <v>8.327176423517152</v>
+        <v>6.78715290686828</v>
       </c>
       <c r="M18">
-        <v>6.370815599719259</v>
+        <v>6.365965748348485</v>
       </c>
       <c r="N18">
-        <v>0.08666779355518854</v>
+        <v>0.08712781398786844</v>
       </c>
       <c r="O18">
-        <v>0.176438955195676</v>
+        <v>0.177465662513175</v>
       </c>
       <c r="P18">
-        <v>0.03769404424607337</v>
+        <v>0.03772261695348856</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1274,49 +1274,49 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>54.90650708696391</v>
+        <v>44.71944633625333</v>
       </c>
       <c r="C19">
-        <v>55.24647911662856</v>
+        <v>45.12015359666397</v>
       </c>
       <c r="D19">
-        <v>20.00573032341891</v>
+        <v>17.38821096460881</v>
       </c>
       <c r="E19">
-        <v>15.62767369500145</v>
+        <v>13.03340978949552</v>
       </c>
       <c r="F19">
-        <v>5.606038217832259</v>
+        <v>5.573541148583076</v>
       </c>
       <c r="G19">
-        <v>0.8970379037121297</v>
+        <v>0.8916317690418909</v>
       </c>
       <c r="H19">
-        <v>18.51917344370069</v>
+        <v>15.34049764653605</v>
       </c>
       <c r="I19">
-        <v>12.1761876720098</v>
+        <v>8.943639429221353</v>
       </c>
       <c r="J19">
-        <v>6.594378364376986</v>
+        <v>3.363843307242963</v>
       </c>
       <c r="K19">
-        <v>27.45151638890403</v>
+        <v>22.10193441042266</v>
       </c>
       <c r="L19">
-        <v>6.092795327225454</v>
+        <v>4.641637432094464</v>
       </c>
       <c r="M19">
-        <v>4.274204602315819</v>
+        <v>4.271244175261178</v>
       </c>
       <c r="N19">
-        <v>0.08897577323162975</v>
+        <v>0.08949079418401035</v>
       </c>
       <c r="O19">
-        <v>0.1812793096317896</v>
+        <v>0.182435870047393</v>
       </c>
       <c r="P19">
-        <v>0.03803394556399552</v>
+        <v>0.03806010977466694</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1324,49 +1324,49 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>47.25156210762449</v>
+        <v>39.1829983930242</v>
       </c>
       <c r="C20">
-        <v>47.57384856227532</v>
+        <v>39.55824546589469</v>
       </c>
       <c r="D20">
-        <v>16.86368323318415</v>
+        <v>15.34930988270892</v>
       </c>
       <c r="E20">
-        <v>13.07390755164591</v>
+        <v>11.57525103325104</v>
       </c>
       <c r="F20">
-        <v>4.855492473407089</v>
+        <v>4.833931213206557</v>
       </c>
       <c r="G20">
-        <v>0.7772947472997253</v>
+        <v>0.7737002484557167</v>
       </c>
       <c r="H20">
-        <v>15.63923729069821</v>
+        <v>13.41070913247037</v>
       </c>
       <c r="I20">
-        <v>10.1511398605963</v>
+        <v>7.883343087512677</v>
       </c>
       <c r="J20">
-        <v>5.317376259865069</v>
+        <v>3.048819954781082</v>
       </c>
       <c r="K20">
-        <v>23.24651105472385</v>
+        <v>19.40257470969043</v>
       </c>
       <c r="L20">
-        <v>5.879877308298815</v>
+        <v>4.142099277024016</v>
       </c>
       <c r="M20">
-        <v>3.723084830583197</v>
+        <v>3.720032528294944</v>
       </c>
       <c r="N20">
-        <v>0.08966884006457286</v>
+        <v>0.09006547162964504</v>
       </c>
       <c r="O20">
-        <v>0.1827562708005864</v>
+        <v>0.1836453351948795</v>
       </c>
       <c r="P20">
-        <v>0.03811366988499457</v>
+        <v>0.03814467390386051</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1374,49 +1374,49 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>41.31233554978188</v>
+        <v>32.36926108856094</v>
       </c>
       <c r="C21">
-        <v>41.59724929659161</v>
+        <v>32.71638282413863</v>
       </c>
       <c r="D21">
-        <v>14.13943369244279</v>
+        <v>12.64142068481067</v>
       </c>
       <c r="E21">
-        <v>10.96917540888517</v>
+        <v>9.485431792491433</v>
       </c>
       <c r="F21">
-        <v>4.065907094436271</v>
+        <v>4.046397272970044</v>
       </c>
       <c r="G21">
-        <v>0.6514421113294286</v>
+        <v>0.6481468592840294</v>
       </c>
       <c r="H21">
-        <v>13.43998702877587</v>
+        <v>11.22388707621527</v>
       </c>
       <c r="I21">
-        <v>8.870400084698948</v>
+        <v>6.616934821311035</v>
       </c>
       <c r="J21">
-        <v>4.829412988821202</v>
+        <v>2.57422775634719</v>
       </c>
       <c r="K21">
-        <v>20.9972760521478</v>
+        <v>16.13328324490857</v>
       </c>
       <c r="L21">
-        <v>5.631115963324731</v>
+        <v>3.423971013551705</v>
       </c>
       <c r="M21">
-        <v>3.132247567119046</v>
+        <v>3.129021770706613</v>
       </c>
       <c r="N21">
-        <v>0.09028744389665647</v>
+        <v>0.09071848586732968</v>
       </c>
       <c r="O21">
-        <v>0.184042936166938</v>
+        <v>0.1850182415516303</v>
       </c>
       <c r="P21">
-        <v>0.03819818692466014</v>
+        <v>0.03823716592215063</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1424,49 +1424,49 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.30709226886322</v>
+        <v>30.06821087402077</v>
       </c>
       <c r="C22">
-        <v>36.590646222926</v>
+        <v>30.39977074186461</v>
       </c>
       <c r="D22">
-        <v>13.08575877028497</v>
+        <v>11.87412431231648</v>
       </c>
       <c r="E22">
-        <v>10.14742870418297</v>
+        <v>8.944729565530324</v>
       </c>
       <c r="F22">
-        <v>3.770240565670238</v>
+        <v>3.757749720929184</v>
       </c>
       <c r="G22">
-        <v>0.6042447974044699</v>
+        <v>0.6021230742838333</v>
       </c>
       <c r="H22">
-        <v>12.10100057661323</v>
+        <v>10.42273522337958</v>
       </c>
       <c r="I22">
-        <v>7.863088678469862</v>
+        <v>6.152980131412042</v>
       </c>
       <c r="J22">
-        <v>4.114912690410959</v>
+        <v>2.400465221678959</v>
       </c>
       <c r="K22">
-        <v>18.76515085307886</v>
+        <v>14.98273422621009</v>
       </c>
       <c r="L22">
-        <v>5.211985143354548</v>
+        <v>3.191168272495083</v>
       </c>
       <c r="M22">
-        <v>2.91332732661709</v>
+        <v>2.910591041992578</v>
       </c>
       <c r="N22">
-        <v>0.09064805647914105</v>
+        <v>0.09094619757247722</v>
       </c>
       <c r="O22">
-        <v>0.1848189885736182</v>
+        <v>0.1855000717149402</v>
       </c>
       <c r="P22">
-        <v>0.03823483847892759</v>
+        <v>0.0382703910976366</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1474,49 +1474,49 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.45544218848415</v>
+        <v>29.42224153481016</v>
       </c>
       <c r="C23">
-        <v>34.73960241473766</v>
+        <v>29.74668120297687</v>
       </c>
       <c r="D23">
-        <v>12.38212145423936</v>
+        <v>11.83067227044788</v>
       </c>
       <c r="E23">
-        <v>9.522048049887667</v>
+        <v>8.977800274451324</v>
       </c>
       <c r="F23">
-        <v>3.67006104064769</v>
+        <v>3.660425899626595</v>
       </c>
       <c r="G23">
-        <v>0.5944306118527717</v>
+        <v>0.5946905946137744</v>
       </c>
       <c r="H23">
-        <v>11.43955621834481</v>
+        <v>10.02835905656394</v>
       </c>
       <c r="I23">
-        <v>7.30850985062004</v>
+        <v>5.86826346335477</v>
       </c>
       <c r="J23">
-        <v>3.657493685671744</v>
+        <v>2.212224382943547</v>
       </c>
       <c r="K23">
-        <v>17.58553778003706</v>
+        <v>14.46794977416274</v>
       </c>
       <c r="L23">
-        <v>4.384670340350147</v>
+        <v>3.200657920244077</v>
       </c>
       <c r="M23">
-        <v>2.83821994274054</v>
+        <v>2.836657768502812</v>
       </c>
       <c r="N23">
-        <v>0.09077919874648709</v>
+        <v>0.09101557282433786</v>
       </c>
       <c r="O23">
-        <v>0.1851057089387926</v>
+        <v>0.1856545973566117</v>
       </c>
       <c r="P23">
-        <v>0.0382591957898731</v>
+        <v>0.03828002958718024</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1524,49 +1524,49 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.53747632984161</v>
+        <v>27.375179823622</v>
       </c>
       <c r="C24">
-        <v>30.81951631748899</v>
+        <v>27.68506290034613</v>
       </c>
       <c r="D24">
-        <v>11.61857065934824</v>
+        <v>11.08127539028855</v>
       </c>
       <c r="E24">
-        <v>8.950911236523929</v>
+        <v>8.417656824614845</v>
       </c>
       <c r="F24">
-        <v>3.424833837486677</v>
+        <v>3.419210675891124</v>
       </c>
       <c r="G24">
-        <v>0.5799029294607337</v>
+        <v>0.5801960735445316</v>
       </c>
       <c r="H24">
-        <v>9.749024020614506</v>
+        <v>9.483349023438199</v>
       </c>
       <c r="I24">
-        <v>5.875543690280935</v>
+        <v>5.608964697772275</v>
       </c>
       <c r="J24">
-        <v>2.460485751075271</v>
+        <v>2.196809796494196</v>
       </c>
       <c r="K24">
-        <v>14.67621780408772</v>
+        <v>13.50778634075165</v>
       </c>
       <c r="L24">
-        <v>3.728859669364293</v>
+        <v>2.917103225827271</v>
       </c>
       <c r="M24">
-        <v>2.654413016726549</v>
+        <v>2.653410342651632</v>
       </c>
       <c r="N24">
-        <v>0.09106351537407641</v>
+        <v>0.09121155604602341</v>
       </c>
       <c r="O24">
-        <v>0.1857474037498405</v>
+        <v>0.186065156754994</v>
       </c>
       <c r="P24">
-        <v>0.03829495110975527</v>
+        <v>0.038309249139006</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1574,49 +1574,49 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.83184251855354</v>
+        <v>26.12480954361113</v>
       </c>
       <c r="C25">
-        <v>28.12124010009464</v>
+        <v>26.43082392095911</v>
       </c>
       <c r="D25">
-        <v>10.75327390948075</v>
+        <v>10.35631626000732</v>
       </c>
       <c r="E25">
-        <v>8.172581574921271</v>
+        <v>7.777727713318814</v>
       </c>
       <c r="F25">
-        <v>3.313480746798249</v>
+        <v>3.310543982848525</v>
       </c>
       <c r="G25">
-        <v>0.57429886245129</v>
+        <v>0.574489014736168</v>
       </c>
       <c r="H25">
-        <v>9.439669481675844</v>
+        <v>9.182248631508919</v>
       </c>
       <c r="I25">
-        <v>5.696173647616555</v>
+        <v>5.434589643417282</v>
       </c>
       <c r="J25">
-        <v>2.39305632040255</v>
+        <v>2.131544865987011</v>
       </c>
       <c r="K25">
-        <v>13.7222495198151</v>
+        <v>13.07572472070968</v>
       </c>
       <c r="L25">
-        <v>3.186483322109965</v>
+        <v>2.741608648882897</v>
       </c>
       <c r="M25">
-        <v>2.571656039664033</v>
+        <v>2.571120341329904</v>
       </c>
       <c r="N25">
-        <v>0.09123699144724687</v>
+        <v>0.09131696999607884</v>
       </c>
       <c r="O25">
-        <v>0.1861082483015887</v>
+        <v>0.1862806691331655</v>
       </c>
       <c r="P25">
-        <v>0.03831529237105682</v>
+        <v>0.03832317708639063</v>
       </c>
     </row>
   </sheetData>

--- a/PRO1/step_3/results/res_line/loading_percent.xlsx
+++ b/PRO1/step_3/results/res_line/loading_percent.xlsx
@@ -424,49 +424,49 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.6166239554012</v>
+        <v>13.45752745161713</v>
       </c>
       <c r="C2">
-        <v>24.91017837053549</v>
+        <v>13.53327493143787</v>
       </c>
       <c r="D2">
-        <v>9.816700255620935</v>
+        <v>10.36925802607942</v>
       </c>
       <c r="E2">
-        <v>7.374497036943752</v>
+        <v>7.945716651822439</v>
       </c>
       <c r="F2">
-        <v>3.13664490421169</v>
+        <v>3.113453485803613</v>
       </c>
       <c r="G2">
-        <v>0.566281978155486</v>
+        <v>1.2745272881879</v>
       </c>
       <c r="H2">
-        <v>8.576177857740038</v>
+        <v>9.490697766581187</v>
       </c>
       <c r="I2">
-        <v>5.027540317153484</v>
+        <v>5.997183411357165</v>
       </c>
       <c r="J2">
-        <v>1.897800350425649</v>
+        <v>1.85136397330667</v>
       </c>
       <c r="K2">
-        <v>12.25747381616197</v>
+        <v>13.904796142371</v>
       </c>
       <c r="L2">
-        <v>2.600364641085597</v>
+        <v>3.498993403313101</v>
       </c>
       <c r="M2">
-        <v>2.438592158907982</v>
+        <v>2.439613493994135</v>
       </c>
       <c r="N2">
-        <v>0.09145931451203537</v>
+        <v>0.092132031286683</v>
       </c>
       <c r="O2">
-        <v>0.1865845446801283</v>
+        <v>0.1879273770107003</v>
       </c>
       <c r="P2">
-        <v>0.03834304220548546</v>
+        <v>0.03832719808880809</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -474,49 +474,49 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.65936312655673</v>
+        <v>12.27507841912483</v>
       </c>
       <c r="C3">
-        <v>23.94231109314452</v>
+        <v>12.34738963733642</v>
       </c>
       <c r="D3">
-        <v>9.441522450544102</v>
+        <v>9.609947012009192</v>
       </c>
       <c r="E3">
-        <v>7.094153983085702</v>
+        <v>7.280456021208346</v>
       </c>
       <c r="F3">
-        <v>3.015694785982693</v>
+        <v>2.993190134760086</v>
       </c>
       <c r="G3">
-        <v>0.5613211065682899</v>
+        <v>0.785655891947949</v>
       </c>
       <c r="H3">
-        <v>8.240983281506281</v>
+        <v>8.656270690123835</v>
       </c>
       <c r="I3">
-        <v>4.833470643543135</v>
+        <v>5.289806043198929</v>
       </c>
       <c r="J3">
-        <v>1.825262058624634</v>
+        <v>1.779010005045994</v>
       </c>
       <c r="K3">
-        <v>11.77674172116469</v>
+        <v>12.40920044634618</v>
       </c>
       <c r="L3">
-        <v>2.501835106520398</v>
+        <v>3.125438203333103</v>
       </c>
       <c r="M3">
-        <v>2.346137943356943</v>
+        <v>2.346820187419175</v>
       </c>
       <c r="N3">
-        <v>0.09155413755565585</v>
+        <v>0.09223356125915813</v>
       </c>
       <c r="O3">
-        <v>0.1867844616810511</v>
+        <v>0.1881585303908496</v>
       </c>
       <c r="P3">
-        <v>0.0383568560099322</v>
+        <v>0.03834585533078647</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -524,49 +524,49 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.54278508741706</v>
+        <v>11.73553581182676</v>
       </c>
       <c r="C4">
-        <v>22.8152339984819</v>
+        <v>11.85648366288311</v>
       </c>
       <c r="D4">
-        <v>8.925252764747437</v>
+        <v>9.100553730693678</v>
       </c>
       <c r="E4">
-        <v>6.675804600810194</v>
+        <v>6.867341287294164</v>
       </c>
       <c r="F4">
-        <v>2.890716347943656</v>
+        <v>2.870266575838692</v>
       </c>
       <c r="G4">
-        <v>0.5569048884497865</v>
+        <v>0.7765488981748709</v>
       </c>
       <c r="H4">
-        <v>7.894776315607742</v>
+        <v>8.440605880703925</v>
       </c>
       <c r="I4">
-        <v>4.633024068258143</v>
+        <v>5.220539829665769</v>
       </c>
       <c r="J4">
-        <v>1.75036301066954</v>
+        <v>1.705331306268371</v>
       </c>
       <c r="K4">
-        <v>11.2803709263518</v>
+        <v>12.04841841636208</v>
       </c>
       <c r="L4">
-        <v>2.400054767020552</v>
+        <v>2.751750245254904</v>
       </c>
       <c r="M4">
-        <v>2.25062868444357</v>
+        <v>2.250998487712565</v>
       </c>
       <c r="N4">
-        <v>0.09165851629675879</v>
+        <v>0.0923027626145299</v>
       </c>
       <c r="O4">
-        <v>0.1870023166645472</v>
+        <v>0.188300758751027</v>
       </c>
       <c r="P4">
-        <v>0.03837108787214492</v>
+        <v>0.03836487241153901</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -574,49 +574,49 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.53784453550096</v>
+        <v>11.53738115259702</v>
       </c>
       <c r="C5">
-        <v>22.81023100488489</v>
+        <v>11.53353036117635</v>
       </c>
       <c r="D5">
-        <v>8.923312860246503</v>
+        <v>8.841297750077663</v>
       </c>
       <c r="E5">
-        <v>6.674355183412664</v>
+        <v>6.608814550126578</v>
       </c>
       <c r="F5">
-        <v>2.890090554605184</v>
+        <v>2.869203774537987</v>
       </c>
       <c r="G5">
-        <v>0.556884404140161</v>
+        <v>0.6691542118146916</v>
       </c>
       <c r="H5">
-        <v>7.893042636658157</v>
+        <v>8.188654927038828</v>
       </c>
       <c r="I5">
-        <v>4.632020271387335</v>
+        <v>4.963083209806417</v>
       </c>
       <c r="J5">
-        <v>1.749987985031645</v>
+        <v>1.704637414711164</v>
       </c>
       <c r="K5">
-        <v>11.27788573247121</v>
+        <v>11.6643226570907</v>
       </c>
       <c r="L5">
-        <v>2.399543850138719</v>
+        <v>2.751240521228687</v>
       </c>
       <c r="M5">
-        <v>2.250149234038202</v>
+        <v>2.250518957593737</v>
       </c>
       <c r="N5">
-        <v>0.09165900577179277</v>
+        <v>0.09231726338204616</v>
       </c>
       <c r="O5">
-        <v>0.1870033487171302</v>
+        <v>0.1883362337839894</v>
       </c>
       <c r="P5">
-        <v>0.03837115921727481</v>
+        <v>0.03836494379565108</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -624,49 +624,49 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.90652351609016</v>
+        <v>11.11381303552213</v>
       </c>
       <c r="C6">
-        <v>22.17068806163566</v>
+        <v>11.21791169574701</v>
       </c>
       <c r="D6">
-        <v>8.67530365441776</v>
+        <v>8.852808705476255</v>
       </c>
       <c r="E6">
-        <v>6.489054523820709</v>
+        <v>6.682221141581339</v>
       </c>
       <c r="F6">
-        <v>2.810075524993081</v>
+        <v>2.790349288770887</v>
       </c>
       <c r="G6">
-        <v>0.5544123281570408</v>
+        <v>0.77086346911185</v>
       </c>
       <c r="H6">
-        <v>7.671390493119934</v>
+        <v>7.599656581491391</v>
       </c>
       <c r="I6">
-        <v>4.50368290236845</v>
+        <v>4.455169827497524</v>
       </c>
       <c r="J6">
-        <v>1.702045505914927</v>
+        <v>1.657248507015896</v>
       </c>
       <c r="K6">
-        <v>10.96019071851285</v>
+        <v>11.09866339155177</v>
       </c>
       <c r="L6">
-        <v>2.422250370921913</v>
+        <v>2.776440181734572</v>
       </c>
       <c r="M6">
-        <v>2.188906626080581</v>
+        <v>2.18926730946266</v>
       </c>
       <c r="N6">
-        <v>0.0917215618443421</v>
+        <v>0.09236103701861902</v>
       </c>
       <c r="O6">
-        <v>0.18713524853446</v>
+        <v>0.1884422243632397</v>
       </c>
       <c r="P6">
-        <v>0.03837871533764686</v>
+        <v>0.03837248337899994</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -674,49 +674,49 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.52965776823835</v>
+        <v>12.31756534663254</v>
       </c>
       <c r="C7">
-        <v>22.79885809022856</v>
+        <v>12.30064197336661</v>
       </c>
       <c r="D7">
-        <v>8.869417127759274</v>
+        <v>9.562244628880626</v>
       </c>
       <c r="E7">
-        <v>6.634086133479755</v>
+        <v>7.342631070119543</v>
       </c>
       <c r="F7">
-        <v>2.872703200659759</v>
+        <v>2.853284461851954</v>
       </c>
       <c r="G7">
-        <v>0.5562943744318563</v>
+        <v>1.494116469174139</v>
       </c>
       <c r="H7">
-        <v>7.844880962652975</v>
+        <v>8.14495396778038</v>
       </c>
       <c r="I7">
-        <v>4.60413097374948</v>
+        <v>4.937816019344264</v>
       </c>
       <c r="J7">
-        <v>1.739567421715365</v>
+        <v>1.695130189711077</v>
       </c>
       <c r="K7">
-        <v>11.20885096370496</v>
+        <v>12.48991063088942</v>
       </c>
       <c r="L7">
-        <v>2.385196197860682</v>
+        <v>3.751363166416429</v>
       </c>
       <c r="M7">
-        <v>2.236685172583384</v>
+        <v>2.238101115480094</v>
       </c>
       <c r="N7">
-        <v>0.09166694390034853</v>
+        <v>0.09228236476514934</v>
       </c>
       <c r="O7">
-        <v>0.1870204632873555</v>
+        <v>0.1882624782136234</v>
       </c>
       <c r="P7">
-        <v>0.03837316233379306</v>
+        <v>0.03834922727895256</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -724,49 +724,49 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.72011232378976</v>
+        <v>12.63005135250742</v>
       </c>
       <c r="C8">
-        <v>24.00376005297306</v>
+        <v>12.63525430237715</v>
       </c>
       <c r="D8">
-        <v>9.465345142247559</v>
+        <v>9.763389958246133</v>
       </c>
       <c r="E8">
-        <v>7.111954708732234</v>
+        <v>7.427675646750107</v>
       </c>
       <c r="F8">
-        <v>3.023375874586575</v>
+        <v>3.001219694470818</v>
       </c>
       <c r="G8">
-        <v>0.5616170508099093</v>
+        <v>1.262271121033763</v>
       </c>
       <c r="H8">
-        <v>8.262268012145137</v>
+        <v>8.554601557526203</v>
       </c>
       <c r="I8">
-        <v>4.84579412036523</v>
+        <v>5.175169156589055</v>
       </c>
       <c r="J8">
-        <v>1.829867674540169</v>
+        <v>1.783854928156662</v>
       </c>
       <c r="K8">
-        <v>11.80726378120796</v>
+        <v>12.82166321922251</v>
       </c>
       <c r="L8">
-        <v>2.508096438542984</v>
+        <v>3.685857627852002</v>
       </c>
       <c r="M8">
-        <v>2.352013328963529</v>
+        <v>2.353300481951882</v>
       </c>
       <c r="N8">
-        <v>0.09154811966885168</v>
+        <v>0.09221521064075829</v>
       </c>
       <c r="O8">
-        <v>0.186771773817842</v>
+        <v>0.1881180855465499</v>
       </c>
       <c r="P8">
-        <v>0.03835597924192987</v>
+        <v>0.03833528169858664</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -774,49 +774,49 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.01661898926115</v>
+        <v>14.42216816034503</v>
       </c>
       <c r="C9">
-        <v>27.33331792250924</v>
+        <v>14.4014600615703</v>
       </c>
       <c r="D9">
-        <v>10.75559548512031</v>
+        <v>10.90439536532014</v>
       </c>
       <c r="E9">
-        <v>8.076097665945472</v>
+        <v>8.247780443546981</v>
       </c>
       <c r="F9">
-        <v>3.439184647805364</v>
+        <v>3.410350292699264</v>
       </c>
       <c r="G9">
-        <v>0.5814148704624698</v>
+        <v>1.182677865832953</v>
       </c>
       <c r="H9">
-        <v>9.414917911206704</v>
+        <v>10.18781992930216</v>
       </c>
       <c r="I9">
-        <v>5.51313592093191</v>
+        <v>6.345498440621686</v>
       </c>
       <c r="J9">
-        <v>2.079379603000871</v>
+        <v>2.029669082347846</v>
       </c>
       <c r="K9">
-        <v>13.46093041368121</v>
+        <v>14.82954591288801</v>
       </c>
       <c r="L9">
-        <v>2.846216611693821</v>
+        <v>3.835758794735838</v>
       </c>
       <c r="M9">
-        <v>2.669268756202555</v>
+        <v>2.670504614559935</v>
       </c>
       <c r="N9">
-        <v>0.09122154532870652</v>
+        <v>0.09198389729444183</v>
       </c>
       <c r="O9">
-        <v>0.1860832863441035</v>
+        <v>0.1876097214736022</v>
       </c>
       <c r="P9">
-        <v>0.03830841685596089</v>
+        <v>0.03829089897007999</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -824,49 +824,49 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>38.53096686642451</v>
+        <v>20.39036974022302</v>
       </c>
       <c r="C10">
-        <v>38.91890742704538</v>
+        <v>20.26245488514567</v>
       </c>
       <c r="D10">
-        <v>15.15909651594087</v>
+        <v>15.47079918937969</v>
       </c>
       <c r="E10">
-        <v>11.33427531265581</v>
+        <v>11.69349949006825</v>
       </c>
       <c r="F10">
-        <v>4.898382697015552</v>
+        <v>4.838447053308201</v>
       </c>
       <c r="G10">
-        <v>0.7839757629508602</v>
+        <v>1.519416488432</v>
       </c>
       <c r="H10">
-        <v>13.46478864277074</v>
+        <v>14.15320759058957</v>
       </c>
       <c r="I10">
-        <v>7.857740596603451</v>
+        <v>8.645118096650704</v>
       </c>
       <c r="J10">
-        <v>2.957051428490747</v>
+        <v>2.889115966147032</v>
       </c>
       <c r="K10">
-        <v>19.27831436707258</v>
+        <v>20.65082082080392</v>
       </c>
       <c r="L10">
-        <v>4.019871842102877</v>
+        <v>5.655545690319644</v>
       </c>
       <c r="M10">
-        <v>3.770292059981219</v>
+        <v>3.773232683008441</v>
       </c>
       <c r="N10">
-        <v>0.09006995876785757</v>
+        <v>0.09117634104344986</v>
       </c>
       <c r="O10">
-        <v>0.1836539497497576</v>
+        <v>0.1858856897149844</v>
       </c>
       <c r="P10">
-        <v>0.03814001754255253</v>
+        <v>0.03811054517358583</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -874,49 +874,49 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>49.28611870646781</v>
+        <v>25.66061505319458</v>
       </c>
       <c r="C11">
-        <v>49.70532996352929</v>
+        <v>25.82855909191239</v>
       </c>
       <c r="D11">
-        <v>19.35987043193115</v>
+        <v>19.68234480692501</v>
       </c>
       <c r="E11">
-        <v>14.50731841694654</v>
+        <v>14.90806805239683</v>
       </c>
       <c r="F11">
-        <v>6.207657807352983</v>
+        <v>6.10874950956087</v>
       </c>
       <c r="G11">
-        <v>0.9927456601627767</v>
+        <v>1.721446169227098</v>
       </c>
       <c r="H11">
-        <v>17.10274544922996</v>
+        <v>18.32341515683661</v>
       </c>
       <c r="I11">
-        <v>9.963925148962248</v>
+        <v>11.34986189993468</v>
       </c>
       <c r="J11">
-        <v>3.746164385853173</v>
+        <v>3.655470574147909</v>
       </c>
       <c r="K11">
-        <v>24.50820118791269</v>
+        <v>26.37713150488819</v>
       </c>
       <c r="L11">
-        <v>5.05388024204397</v>
+        <v>6.315191890615178</v>
       </c>
       <c r="M11">
-        <v>4.740197588637807</v>
+        <v>4.74309587565791</v>
       </c>
       <c r="N11">
-        <v>0.08900184957672734</v>
+        <v>0.09043325690189834</v>
       </c>
       <c r="O11">
-        <v>0.1814063738308385</v>
+        <v>0.184285885521506</v>
       </c>
       <c r="P11">
-        <v>0.03798739354288598</v>
+        <v>0.03796433778926274</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -924,49 +924,49 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>67.12928262894182</v>
+        <v>36.25596372707857</v>
       </c>
       <c r="C12">
-        <v>67.57708467176295</v>
+        <v>36.38249525956604</v>
       </c>
       <c r="D12">
-        <v>26.51167825162737</v>
+        <v>27.79337309605151</v>
       </c>
       <c r="E12">
-        <v>19.95599605427358</v>
+        <v>21.37929846741294</v>
       </c>
       <c r="F12">
-        <v>8.37857449703502</v>
+        <v>8.200293420958207</v>
       </c>
       <c r="G12">
-        <v>1.339021075960766</v>
+        <v>3.911460209595304</v>
       </c>
       <c r="H12">
-        <v>23.27005008160388</v>
+        <v>24.94603104147946</v>
       </c>
       <c r="I12">
-        <v>13.59371487270741</v>
+        <v>15.54739459516883</v>
       </c>
       <c r="J12">
-        <v>5.191168474228391</v>
+        <v>4.919909680379009</v>
       </c>
       <c r="K12">
-        <v>33.32281600195019</v>
+        <v>37.40710791746926</v>
       </c>
       <c r="L12">
-        <v>6.727949791520818</v>
+        <v>8.644981753918477</v>
       </c>
       <c r="M12">
-        <v>6.310434571152866</v>
+        <v>6.31645505051254</v>
       </c>
       <c r="N12">
-        <v>0.08719820656347303</v>
+        <v>0.08908451514199688</v>
       </c>
       <c r="O12">
-        <v>0.1776110168075128</v>
+        <v>0.1813894898674379</v>
       </c>
       <c r="P12">
-        <v>0.03773184513510965</v>
+        <v>0.03769606326729515</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -974,49 +974,49 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>81.17512465027602</v>
+        <v>42.54143809648232</v>
       </c>
       <c r="C13">
-        <v>81.63728459614946</v>
+        <v>42.23872981803508</v>
       </c>
       <c r="D13">
-        <v>31.80623789316906</v>
+        <v>32.80092772548635</v>
       </c>
       <c r="E13">
-        <v>23.8826749592393</v>
+        <v>25.09491406098403</v>
       </c>
       <c r="F13">
-        <v>10.12338418667346</v>
+        <v>9.847890365463059</v>
       </c>
       <c r="G13">
-        <v>1.617514486127309</v>
+        <v>3.242676057831479</v>
       </c>
       <c r="H13">
-        <v>28.00261230009483</v>
+        <v>29.02566802473385</v>
       </c>
       <c r="I13">
-        <v>16.27557360423819</v>
+        <v>17.68466621863227</v>
       </c>
       <c r="J13">
-        <v>6.112355021463264</v>
+        <v>5.915965045774474</v>
       </c>
       <c r="K13">
-        <v>40.44619906688241</v>
+        <v>42.5746755517134</v>
       </c>
       <c r="L13">
-        <v>8.214689470408317</v>
+        <v>12.08117005890538</v>
       </c>
       <c r="M13">
-        <v>7.538841796923896</v>
+        <v>7.553802794343276</v>
       </c>
       <c r="N13">
-        <v>0.08573936427845426</v>
+        <v>0.08812800873147694</v>
       </c>
       <c r="O13">
-        <v>0.1745387292946681</v>
+        <v>0.1793791778933057</v>
       </c>
       <c r="P13">
-        <v>0.03752142874954141</v>
+        <v>0.03744742745660506</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1024,49 +1024,49 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>82.20353085599427</v>
+        <v>43.22584916639241</v>
       </c>
       <c r="C14">
-        <v>82.66806290791565</v>
+        <v>42.85894646884596</v>
       </c>
       <c r="D14">
-        <v>32.03474076062975</v>
+        <v>33.68895262228406</v>
       </c>
       <c r="E14">
-        <v>23.98499492032893</v>
+        <v>25.86297059487241</v>
       </c>
       <c r="F14">
-        <v>10.28426634431882</v>
+        <v>10.00144684104102</v>
       </c>
       <c r="G14">
-        <v>1.643233509947101</v>
+        <v>3.267958923901776</v>
       </c>
       <c r="H14">
-        <v>28.58209008802861</v>
+        <v>29.06017874796874</v>
       </c>
       <c r="I14">
-        <v>16.67112835968131</v>
+        <v>17.52797557261697</v>
       </c>
       <c r="J14">
-        <v>6.346520284964448</v>
+        <v>6.008317438294622</v>
       </c>
       <c r="K14">
-        <v>41.09271777703928</v>
+        <v>42.79147071949804</v>
       </c>
       <c r="L14">
-        <v>8.24607577663595</v>
+        <v>11.42044139826525</v>
       </c>
       <c r="M14">
-        <v>7.651454321084623</v>
+        <v>7.663879525709278</v>
       </c>
       <c r="N14">
-        <v>0.08561857524819426</v>
+        <v>0.0880298452797991</v>
       </c>
       <c r="O14">
-        <v>0.1742774171916619</v>
+        <v>0.1791890635415499</v>
       </c>
       <c r="P14">
-        <v>0.03750374259535513</v>
+        <v>0.03744319162530974</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1074,49 +1074,49 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>81.27533901702864</v>
+        <v>43.02241202962338</v>
       </c>
       <c r="C15">
-        <v>81.73833751101095</v>
+        <v>42.97679763376038</v>
       </c>
       <c r="D15">
-        <v>31.62526165727442</v>
+        <v>33.03728126117511</v>
       </c>
       <c r="E15">
-        <v>23.67874017662338</v>
+        <v>25.3063652489124</v>
       </c>
       <c r="F15">
-        <v>10.15252412774387</v>
+        <v>9.879820317620339</v>
       </c>
       <c r="G15">
-        <v>1.622182268768919</v>
+        <v>4.195526906869476</v>
       </c>
       <c r="H15">
-        <v>28.21438970697223</v>
+        <v>29.25001405513868</v>
       </c>
       <c r="I15">
-        <v>16.45808970963801</v>
+        <v>17.87442860470247</v>
       </c>
       <c r="J15">
-        <v>6.266532114259864</v>
+        <v>5.935918356008819</v>
       </c>
       <c r="K15">
-        <v>40.43205683788509</v>
+        <v>43.77749207413636</v>
       </c>
       <c r="L15">
-        <v>8.326454494930038</v>
+        <v>11.90725782435872</v>
       </c>
       <c r="M15">
-        <v>7.560194806510288</v>
+        <v>7.574080808207587</v>
       </c>
       <c r="N15">
-        <v>0.08572332782758889</v>
+        <v>0.08807973330883191</v>
       </c>
       <c r="O15">
-        <v>0.1745004025967218</v>
+        <v>0.1792608395365311</v>
       </c>
       <c r="P15">
-        <v>0.03751614235591167</v>
+        <v>0.03744765104848436</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1124,49 +1124,49 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>80.96200215803397</v>
+        <v>43.20661094625532</v>
       </c>
       <c r="C16">
-        <v>81.42635463309963</v>
+        <v>42.96503791042129</v>
       </c>
       <c r="D16">
-        <v>31.60748651985454</v>
+        <v>32.75520248904259</v>
       </c>
       <c r="E16">
-        <v>23.66543997587112</v>
+        <v>25.02669423966607</v>
       </c>
       <c r="F16">
-        <v>10.14681465392625</v>
+        <v>9.876429908889858</v>
       </c>
       <c r="G16">
-        <v>1.621271044535013</v>
+        <v>4.058826384995724</v>
       </c>
       <c r="H16">
-        <v>28.19841999768792</v>
+        <v>29.63899230362506</v>
       </c>
       <c r="I16">
-        <v>16.44883604649464</v>
+        <v>18.27806863848683</v>
       </c>
       <c r="J16">
-        <v>6.263045794864045</v>
+        <v>5.934347637094454</v>
       </c>
       <c r="K16">
-        <v>40.40909221103506</v>
+        <v>44.03417370090189</v>
       </c>
       <c r="L16">
-        <v>8.145080718502861</v>
+        <v>11.61076689878102</v>
       </c>
       <c r="M16">
-        <v>7.556747243339153</v>
+        <v>7.570147682897528</v>
       </c>
       <c r="N16">
-        <v>0.08574120527709937</v>
+        <v>0.08807885731708477</v>
       </c>
       <c r="O16">
-        <v>0.1745372079601459</v>
+        <v>0.1792448937509569</v>
       </c>
       <c r="P16">
-        <v>0.03751998666236239</v>
+        <v>0.03745384940381259</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1174,49 +1174,49 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>81.2446617755256</v>
+        <v>44.20177513907556</v>
       </c>
       <c r="C17">
-        <v>81.70684093613387</v>
+        <v>43.82331285788816</v>
       </c>
       <c r="D17">
-        <v>31.83406372119685</v>
+        <v>32.45530209307466</v>
       </c>
       <c r="E17">
-        <v>23.90349142087587</v>
+        <v>24.73418643389937</v>
       </c>
       <c r="F17">
-        <v>10.13232961280238</v>
+        <v>9.866681781475629</v>
       </c>
       <c r="G17">
-        <v>1.618902869829927</v>
+        <v>5.438441549052114</v>
       </c>
       <c r="H17">
-        <v>28.02684735144261</v>
+        <v>30.28854025668982</v>
       </c>
       <c r="I17">
-        <v>16.28961090388738</v>
+        <v>18.95371273452395</v>
       </c>
       <c r="J17">
-        <v>6.117619020106364</v>
+        <v>5.930124223350484</v>
       </c>
       <c r="K17">
-        <v>40.21735783352083</v>
+        <v>46.04504743051305</v>
       </c>
       <c r="L17">
-        <v>8.132275943997923</v>
+        <v>11.11210006342013</v>
       </c>
       <c r="M17">
-        <v>7.544739693281505</v>
+        <v>7.556208726701017</v>
       </c>
       <c r="N17">
-        <v>0.08573211648926427</v>
+        <v>0.08803083427843089</v>
       </c>
       <c r="O17">
-        <v>0.1745277436608134</v>
+        <v>0.1790980958705994</v>
       </c>
       <c r="P17">
-        <v>0.03752204349704685</v>
+        <v>0.03746533155571954</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1224,49 +1224,49 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>67.89165781522065</v>
+        <v>37.71451495492434</v>
       </c>
       <c r="C18">
-        <v>68.33941904723079</v>
+        <v>37.38252612218969</v>
       </c>
       <c r="D18">
-        <v>26.62210227238284</v>
+        <v>28.04175149502329</v>
       </c>
       <c r="E18">
-        <v>20.00477643759565</v>
+        <v>21.56562054931086</v>
       </c>
       <c r="F18">
-        <v>8.457079045215856</v>
+        <v>8.279404152593797</v>
       </c>
       <c r="G18">
-        <v>1.351545267356978</v>
+        <v>4.881814634546482</v>
       </c>
       <c r="H18">
-        <v>23.36039240563652</v>
+        <v>25.56820910601276</v>
       </c>
       <c r="I18">
-        <v>13.58719596364672</v>
+        <v>16.08585206297438</v>
       </c>
       <c r="J18">
-        <v>5.104335768125271</v>
+        <v>4.968583454865259</v>
       </c>
       <c r="K18">
-        <v>33.50676122277317</v>
+        <v>39.07698240492047</v>
       </c>
       <c r="L18">
-        <v>6.78715290686828</v>
+        <v>10.9210526587032</v>
       </c>
       <c r="M18">
-        <v>6.365965748348485</v>
+        <v>6.379222172825186</v>
       </c>
       <c r="N18">
-        <v>0.08712781398786844</v>
+        <v>0.08898833635956047</v>
       </c>
       <c r="O18">
-        <v>0.177465662513175</v>
+        <v>0.1811599413737219</v>
       </c>
       <c r="P18">
-        <v>0.03772261695348856</v>
+        <v>0.03764461941012214</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1274,49 +1274,49 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>44.71944633625333</v>
+        <v>28.11439832132985</v>
       </c>
       <c r="C19">
-        <v>45.12015359666397</v>
+        <v>27.3841628165684</v>
       </c>
       <c r="D19">
-        <v>17.38821096460881</v>
+        <v>20.33174165231057</v>
       </c>
       <c r="E19">
-        <v>13.03340978949552</v>
+        <v>16.03027168241584</v>
       </c>
       <c r="F19">
-        <v>5.573541148583076</v>
+        <v>5.509090345152744</v>
       </c>
       <c r="G19">
-        <v>0.8916317690418909</v>
+        <v>4.950584714186575</v>
       </c>
       <c r="H19">
-        <v>15.34049764653605</v>
+        <v>18.7501480547167</v>
       </c>
       <c r="I19">
-        <v>8.943639429221353</v>
+        <v>12.52110525371095</v>
       </c>
       <c r="J19">
-        <v>3.363843307242963</v>
+        <v>3.295294602594523</v>
       </c>
       <c r="K19">
-        <v>22.10193441042266</v>
+        <v>29.39423178041211</v>
       </c>
       <c r="L19">
-        <v>4.641637432094464</v>
+        <v>10.36980395731952</v>
       </c>
       <c r="M19">
-        <v>4.271244175261178</v>
+        <v>4.283311370283467</v>
       </c>
       <c r="N19">
-        <v>0.08949079418401035</v>
+        <v>0.09053001086169545</v>
       </c>
       <c r="O19">
-        <v>0.182435870047393</v>
+        <v>0.184430991190077</v>
       </c>
       <c r="P19">
-        <v>0.03806010977466694</v>
+        <v>0.03795368432481359</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1324,49 +1324,49 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>39.1829983930242</v>
+        <v>23.53141442971904</v>
       </c>
       <c r="C20">
-        <v>39.55824546589469</v>
+        <v>23.1084971751983</v>
       </c>
       <c r="D20">
-        <v>15.34930988270892</v>
+        <v>17.65934532800823</v>
       </c>
       <c r="E20">
-        <v>11.57525103325104</v>
+        <v>13.92800938137197</v>
       </c>
       <c r="F20">
-        <v>4.833931213206557</v>
+        <v>4.782324900832643</v>
       </c>
       <c r="G20">
-        <v>0.7737002484557167</v>
+        <v>3.745545188669708</v>
       </c>
       <c r="H20">
-        <v>13.41070913247037</v>
+        <v>15.5358207698476</v>
       </c>
       <c r="I20">
-        <v>7.883343087512677</v>
+        <v>10.13159325242833</v>
       </c>
       <c r="J20">
-        <v>3.048819954781082</v>
+        <v>2.856128839893288</v>
       </c>
       <c r="K20">
-        <v>19.40257470969043</v>
+        <v>24.20221601354618</v>
       </c>
       <c r="L20">
-        <v>4.142099277024016</v>
+        <v>8.789497549914492</v>
       </c>
       <c r="M20">
-        <v>3.720032528294944</v>
+        <v>3.728412645978699</v>
       </c>
       <c r="N20">
-        <v>0.09006547162964504</v>
+        <v>0.09102914948808601</v>
       </c>
       <c r="O20">
-        <v>0.1836453351948795</v>
+        <v>0.1855387306889246</v>
       </c>
       <c r="P20">
-        <v>0.03814467390386051</v>
+        <v>0.03805967224835505</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1374,49 +1374,49 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.36926108856094</v>
+        <v>21.83244509322424</v>
       </c>
       <c r="C21">
-        <v>32.71638282413863</v>
+        <v>21.42828100639288</v>
       </c>
       <c r="D21">
-        <v>12.64142068481067</v>
+        <v>16.07307240334164</v>
       </c>
       <c r="E21">
-        <v>9.485431792491433</v>
+        <v>12.94300024961473</v>
       </c>
       <c r="F21">
-        <v>4.046397272970044</v>
+        <v>4.016794377982843</v>
       </c>
       <c r="G21">
-        <v>0.6481468592840294</v>
+        <v>5.097584599648209</v>
       </c>
       <c r="H21">
-        <v>11.22388707621527</v>
+        <v>13.93085388682885</v>
       </c>
       <c r="I21">
-        <v>6.616934821311035</v>
+        <v>9.426032196579891</v>
       </c>
       <c r="J21">
-        <v>2.57422775634719</v>
+        <v>2.395442792437098</v>
       </c>
       <c r="K21">
-        <v>16.13328324490857</v>
+        <v>23.14108692952786</v>
       </c>
       <c r="L21">
-        <v>3.423971013551705</v>
+        <v>9.358416222635396</v>
       </c>
       <c r="M21">
-        <v>3.129021770706613</v>
+        <v>3.138028745914317</v>
       </c>
       <c r="N21">
-        <v>0.09071848586732968</v>
+        <v>0.09138040563341714</v>
       </c>
       <c r="O21">
-        <v>0.1850182415516303</v>
+        <v>0.1862669409620134</v>
       </c>
       <c r="P21">
-        <v>0.03823716592215063</v>
+        <v>0.03812852741360841</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1424,49 +1424,49 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.06821087402077</v>
+        <v>18.88987778067827</v>
       </c>
       <c r="C22">
-        <v>30.39977074186461</v>
+        <v>18.54193426746824</v>
       </c>
       <c r="D22">
-        <v>11.87412431231648</v>
+        <v>14.50727451042453</v>
       </c>
       <c r="E22">
-        <v>8.944729565530324</v>
+        <v>11.60257053253129</v>
       </c>
       <c r="F22">
-        <v>3.757749720929184</v>
+        <v>3.728997694746649</v>
       </c>
       <c r="G22">
-        <v>0.6021230742838333</v>
+        <v>3.704146071385862</v>
       </c>
       <c r="H22">
-        <v>10.42273522337958</v>
+        <v>11.70676698751002</v>
       </c>
       <c r="I22">
-        <v>6.152980131412042</v>
+        <v>7.508960768250832</v>
       </c>
       <c r="J22">
-        <v>2.400465221678959</v>
+        <v>2.22151807965573</v>
       </c>
       <c r="K22">
-        <v>14.98273422621009</v>
+        <v>19.20882327612269</v>
       </c>
       <c r="L22">
-        <v>3.191168272495083</v>
+        <v>8.133109553654251</v>
       </c>
       <c r="M22">
-        <v>2.910591041992578</v>
+        <v>2.917479843688867</v>
       </c>
       <c r="N22">
-        <v>0.09094619757247722</v>
+        <v>0.09163995249856012</v>
       </c>
       <c r="O22">
-        <v>0.1855000717149402</v>
+        <v>0.1868689951045684</v>
       </c>
       <c r="P22">
-        <v>0.0382703910976366</v>
+        <v>0.03818101005777622</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1474,49 +1474,49 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.42224153481016</v>
+        <v>18.10538415195084</v>
       </c>
       <c r="C23">
-        <v>29.74668120297687</v>
+        <v>17.62391571874486</v>
       </c>
       <c r="D23">
-        <v>11.83067227044788</v>
+        <v>13.28166329573396</v>
       </c>
       <c r="E23">
-        <v>8.977800274451324</v>
+        <v>10.45257237142881</v>
       </c>
       <c r="F23">
-        <v>3.660425899626595</v>
+        <v>3.631774125916112</v>
       </c>
       <c r="G23">
-        <v>0.5946905946137744</v>
+        <v>3.157267896532062</v>
       </c>
       <c r="H23">
-        <v>10.02835905656394</v>
+        <v>11.82026611245083</v>
       </c>
       <c r="I23">
-        <v>5.86826346335477</v>
+        <v>7.743847170103906</v>
       </c>
       <c r="J23">
-        <v>2.212224382943547</v>
+        <v>2.163239941001796</v>
       </c>
       <c r="K23">
-        <v>14.46794977416274</v>
+        <v>18.68504811413077</v>
       </c>
       <c r="L23">
-        <v>3.200657920244077</v>
+        <v>6.777907007058011</v>
       </c>
       <c r="M23">
-        <v>2.836657768502812</v>
+        <v>2.84146042945037</v>
       </c>
       <c r="N23">
-        <v>0.09101557282433786</v>
+        <v>0.09172577018543797</v>
       </c>
       <c r="O23">
-        <v>0.1856545973566117</v>
+        <v>0.1870327830013955</v>
       </c>
       <c r="P23">
-        <v>0.03828002958718024</v>
+        <v>0.03821605118549731</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1524,49 +1524,49 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.375179823622</v>
+        <v>15.5873663360444</v>
       </c>
       <c r="C24">
-        <v>27.68506290034613</v>
+        <v>15.3583049144048</v>
       </c>
       <c r="D24">
-        <v>11.08127539028855</v>
+        <v>11.62230629731783</v>
       </c>
       <c r="E24">
-        <v>8.417656824614845</v>
+        <v>8.980624675071018</v>
       </c>
       <c r="F24">
-        <v>3.419210675891124</v>
+        <v>3.391969892954151</v>
       </c>
       <c r="G24">
-        <v>0.5801960735445316</v>
+        <v>1.940222010324426</v>
       </c>
       <c r="H24">
-        <v>9.483349023438199</v>
+        <v>10.64273256207954</v>
       </c>
       <c r="I24">
-        <v>5.608964697772275</v>
+        <v>6.834162835515543</v>
       </c>
       <c r="J24">
-        <v>2.196809796494196</v>
+        <v>2.018821503938351</v>
       </c>
       <c r="K24">
-        <v>13.50778634075165</v>
+        <v>16.03928217724598</v>
       </c>
       <c r="L24">
-        <v>2.917103225827271</v>
+        <v>4.851160860804203</v>
       </c>
       <c r="M24">
-        <v>2.653410342651632</v>
+        <v>2.655807594793266</v>
       </c>
       <c r="N24">
-        <v>0.09121155604602341</v>
+        <v>0.09193556173740053</v>
       </c>
       <c r="O24">
-        <v>0.186065156754994</v>
+        <v>0.1874953840506386</v>
       </c>
       <c r="P24">
-        <v>0.038309249139006</v>
+        <v>0.03827508219681759</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1574,49 +1574,49 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.12480954361113</v>
+        <v>14.05699095259627</v>
       </c>
       <c r="C25">
-        <v>26.43082392095911</v>
+        <v>14.02301320902889</v>
       </c>
       <c r="D25">
-        <v>10.35631626000732</v>
+        <v>10.89864109354151</v>
       </c>
       <c r="E25">
-        <v>7.777727713318814</v>
+        <v>8.341330625993542</v>
       </c>
       <c r="F25">
-        <v>3.310543982848525</v>
+        <v>3.284047547292858</v>
       </c>
       <c r="G25">
-        <v>0.574489014736168</v>
+        <v>1.418205298980939</v>
       </c>
       <c r="H25">
-        <v>9.182248631508919</v>
+        <v>9.462654766788948</v>
       </c>
       <c r="I25">
-        <v>5.434589643417282</v>
+        <v>5.757208890040381</v>
       </c>
       <c r="J25">
-        <v>2.131544865987011</v>
+        <v>1.953660089295817</v>
       </c>
       <c r="K25">
-        <v>13.07572472070968</v>
+        <v>14.19957597866067</v>
       </c>
       <c r="L25">
-        <v>2.741608648882897</v>
+        <v>4.010639438095054</v>
       </c>
       <c r="M25">
-        <v>2.571120341329904</v>
+        <v>2.572642568447514</v>
       </c>
       <c r="N25">
-        <v>0.09131696999607884</v>
+        <v>0.09204492198106171</v>
       </c>
       <c r="O25">
-        <v>0.1862806691331655</v>
+        <v>0.1877535029646248</v>
       </c>
       <c r="P25">
-        <v>0.03832317708639063</v>
+        <v>0.03830078051293541</v>
       </c>
     </row>
   </sheetData>
